--- a/BackTest/2020-01-12 BackTest IPX.xlsx
+++ b/BackTest/2020-01-12 BackTest IPX.xlsx
@@ -10811,13 +10811,17 @@
         <v>44.60200000000003</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="K298" t="n">
+        <v>43.7</v>
+      </c>
       <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
@@ -10846,14 +10850,22 @@
         <v>44.57700000000003</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="K299" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -10881,14 +10893,22 @@
         <v>44.55200000000003</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="K300" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -10922,8 +10942,14 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -10957,8 +10983,14 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -10992,8 +11024,14 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11027,8 +11065,14 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11062,8 +11106,14 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11097,8 +11147,14 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11132,8 +11188,14 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11167,8 +11229,14 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11202,8 +11270,14 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11237,8 +11311,14 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11272,8 +11352,14 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11307,8 +11393,14 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11342,8 +11434,14 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11377,8 +11475,14 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11406,14 +11510,22 @@
         <v>44.25183333333333</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="K315" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11447,8 +11559,14 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11482,8 +11600,14 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11517,8 +11641,14 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -11552,8 +11682,14 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -11587,8 +11723,14 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -11619,11 +11761,17 @@
         <v>0</v>
       </c>
       <c r="I321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -11654,11 +11802,17 @@
         <v>0</v>
       </c>
       <c r="I322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -11692,8 +11846,14 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -11724,11 +11884,17 @@
         <v>0</v>
       </c>
       <c r="I324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -11759,11 +11925,17 @@
         <v>0</v>
       </c>
       <c r="I325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -11794,11 +11966,17 @@
         <v>0</v>
       </c>
       <c r="I326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -11829,11 +12007,17 @@
         <v>0</v>
       </c>
       <c r="I327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -11864,11 +12048,17 @@
         <v>0</v>
       </c>
       <c r="I328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -11902,8 +12092,14 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -11937,8 +12133,14 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -11972,8 +12174,14 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12007,8 +12215,14 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12042,8 +12256,14 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12077,8 +12297,14 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12112,8 +12338,14 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12147,8 +12379,14 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12182,8 +12420,14 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12217,8 +12461,14 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12252,8 +12502,14 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12287,8 +12543,14 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12322,8 +12584,14 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12357,8 +12625,14 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12392,8 +12666,14 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12427,8 +12707,14 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12462,8 +12748,14 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -12497,8 +12789,14 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -12532,8 +12830,14 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -12567,8 +12871,14 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -12602,8 +12912,14 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -12637,8 +12953,14 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -12672,8 +12994,14 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -12707,8 +13035,14 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -12742,8 +13076,14 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -12777,8 +13117,14 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -12812,8 +13158,14 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -12847,8 +13199,14 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -12882,8 +13240,14 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -12917,8 +13281,14 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -12952,8 +13322,14 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -12987,8 +13363,14 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13022,8 +13404,14 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13057,8 +13445,14 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13092,8 +13486,14 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13127,8 +13527,14 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13162,8 +13568,14 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13197,8 +13609,14 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13232,8 +13650,14 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13267,8 +13691,14 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13302,8 +13732,14 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13337,8 +13773,14 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -13372,8 +13814,14 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -13407,8 +13855,14 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -13442,8 +13896,14 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -13477,8 +13937,14 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -13512,8 +13978,14 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -13547,8 +14019,14 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -13582,8 +14060,14 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -13617,8 +14101,14 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="K378" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -13652,8 +14142,14 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="K379" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -13687,8 +14183,14 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="K380" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -13722,8 +14224,14 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="K381" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -13757,8 +14265,14 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="K382" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -13792,8 +14306,14 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="K383" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -13827,8 +14347,14 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="K384" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -13862,8 +14388,14 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="K385" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -13897,8 +14429,14 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="K386" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -13932,8 +14470,14 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="K387" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -13967,8 +14511,14 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="K388" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14002,8 +14552,14 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="K389" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14037,8 +14593,14 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="K390" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14072,8 +14634,14 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="K391" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14107,8 +14675,14 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="K392" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14142,8 +14716,14 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="K393" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14177,8 +14757,14 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14212,8 +14798,14 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14247,8 +14839,14 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14282,8 +14880,14 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="K397" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14317,8 +14921,14 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="K398" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14352,8 +14962,14 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="K399" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -14387,8 +15003,14 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="K400" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -14422,8 +15044,14 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="K401" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -14457,8 +15085,14 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="K402" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -14492,8 +15126,14 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="K403" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -14527,8 +15167,14 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="K404" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -14562,8 +15208,14 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="K405" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -14597,8 +15249,14 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="K406" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -14632,8 +15290,14 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="K407" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -14661,18 +15325,20 @@
         <v>43.58000000000003</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
       </c>
-      <c r="J408" t="n">
-        <v>43.03</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="n">
-        <v>43.03</v>
-      </c>
-      <c r="L408" t="inlineStr"/>
+        <v>43.7</v>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -14700,20 +15366,18 @@
         <v>43.56550000000003</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
       </c>
-      <c r="J409" t="n">
-        <v>43.03</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="n">
-        <v>43.03</v>
+        <v>43.7</v>
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M409" t="n">
@@ -14743,20 +15407,18 @@
         <v>43.54950000000003</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
       </c>
-      <c r="J410" t="n">
-        <v>43.04</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="n">
-        <v>43.03</v>
+        <v>43.7</v>
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M410" t="n">
@@ -14786,18 +15448,20 @@
         <v>43.53616666666669</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
       </c>
-      <c r="J411" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L411" t="inlineStr"/>
+        <v>43.7</v>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -14825,20 +15489,18 @@
         <v>43.52116666666669</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
       </c>
-      <c r="J412" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M412" t="n">
@@ -14868,20 +15530,18 @@
         <v>43.50783333333335</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
       </c>
-      <c r="J413" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M413" t="n">
@@ -14911,20 +15571,18 @@
         <v>43.49616666666668</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
       </c>
-      <c r="J414" t="n">
-        <v>43.07</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M414" t="n">
@@ -14954,16 +15612,14 @@
         <v>43.48283333333335</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
       </c>
-      <c r="J415" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L415" t="inlineStr">
         <is>
@@ -14997,16 +15653,14 @@
         <v>43.46950000000001</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
       </c>
-      <c r="J416" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L416" t="inlineStr">
         <is>
@@ -15040,16 +15694,14 @@
         <v>43.45433333333335</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
       </c>
-      <c r="J417" t="n">
-        <v>43.09</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L417" t="inlineStr">
         <is>
@@ -15083,16 +15735,14 @@
         <v>43.44250000000001</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
       </c>
-      <c r="J418" t="n">
-        <v>43.09</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L418" t="inlineStr">
         <is>
@@ -15126,16 +15776,14 @@
         <v>43.42916666666667</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
       </c>
-      <c r="J419" t="n">
-        <v>43.09</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L419" t="inlineStr">
         <is>
@@ -15169,16 +15817,14 @@
         <v>43.41583333333334</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
       </c>
-      <c r="J420" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L420" t="inlineStr">
         <is>
@@ -15212,16 +15858,14 @@
         <v>43.4025</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
       </c>
-      <c r="J421" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L421" t="inlineStr">
         <is>
@@ -15255,16 +15899,14 @@
         <v>43.39083333333333</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
       </c>
-      <c r="J422" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L422" t="inlineStr">
         <is>
@@ -15298,16 +15940,14 @@
         <v>43.37566666666667</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
       </c>
-      <c r="J423" t="n">
-        <v>43.09</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L423" t="inlineStr">
         <is>
@@ -15341,16 +15981,14 @@
         <v>43.36233333333333</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
       </c>
-      <c r="J424" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L424" t="inlineStr">
         <is>
@@ -15384,16 +16022,14 @@
         <v>43.35233333333333</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
       </c>
-      <c r="J425" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L425" t="inlineStr">
         <is>
@@ -15427,16 +16063,14 @@
         <v>43.35066666666666</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
       </c>
-      <c r="J426" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L426" t="inlineStr">
         <is>
@@ -15470,16 +16104,14 @@
         <v>43.3495</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
       </c>
-      <c r="J427" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L427" t="inlineStr">
         <is>
@@ -15513,16 +16145,14 @@
         <v>43.35116666666667</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
       </c>
-      <c r="J428" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L428" t="inlineStr">
         <is>
@@ -15556,16 +16186,14 @@
         <v>43.35116666666667</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
       </c>
-      <c r="J429" t="n">
-        <v>43.5</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L429" t="inlineStr">
         <is>
@@ -15599,16 +16227,14 @@
         <v>43.34783333333334</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
       </c>
-      <c r="J430" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L430" t="inlineStr">
         <is>
@@ -15642,16 +16268,14 @@
         <v>43.34450000000001</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
       </c>
-      <c r="J431" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L431" t="inlineStr">
         <is>
@@ -15685,16 +16309,14 @@
         <v>43.34116666666668</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
       </c>
-      <c r="J432" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L432" t="inlineStr">
         <is>
@@ -15728,16 +16350,14 @@
         <v>43.33783333333335</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
       </c>
-      <c r="J433" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L433" t="inlineStr">
         <is>
@@ -15771,16 +16391,14 @@
         <v>43.33450000000002</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
       </c>
-      <c r="J434" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L434" t="inlineStr">
         <is>
@@ -15814,16 +16432,14 @@
         <v>43.33450000000002</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
       </c>
-      <c r="J435" t="n">
-        <v>43.5</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L435" t="inlineStr">
         <is>
@@ -15857,16 +16473,14 @@
         <v>43.33616666666668</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
       </c>
-      <c r="J436" t="n">
-        <v>43.5</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L436" t="inlineStr">
         <is>
@@ -15900,16 +16514,14 @@
         <v>43.33300000000001</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
       </c>
-      <c r="J437" t="n">
-        <v>43.31</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L437" t="inlineStr">
         <is>
@@ -15943,16 +16555,14 @@
         <v>43.32983333333335</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
       </c>
-      <c r="J438" t="n">
-        <v>43.31</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L438" t="inlineStr">
         <is>
@@ -15986,16 +16596,14 @@
         <v>43.32666666666668</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
       </c>
-      <c r="J439" t="n">
-        <v>43.31</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L439" t="inlineStr">
         <is>
@@ -16029,16 +16637,14 @@
         <v>43.32350000000001</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
       </c>
-      <c r="J440" t="n">
-        <v>43.31</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L440" t="inlineStr">
         <is>
@@ -16072,16 +16678,14 @@
         <v>43.32533333333335</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
       </c>
-      <c r="J441" t="n">
-        <v>43.31</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L441" t="inlineStr">
         <is>
@@ -16115,16 +16719,14 @@
         <v>43.32200000000001</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
       </c>
-      <c r="J442" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L442" t="inlineStr">
         <is>
@@ -16158,16 +16760,14 @@
         <v>43.31700000000001</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
       </c>
-      <c r="J443" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L443" t="inlineStr">
         <is>
@@ -16201,16 +16801,14 @@
         <v>43.312</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
       </c>
-      <c r="J444" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L444" t="inlineStr">
         <is>
@@ -16244,16 +16842,14 @@
         <v>43.30866666666667</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
       </c>
-      <c r="J445" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L445" t="inlineStr">
         <is>
@@ -16287,16 +16883,14 @@
         <v>43.30533333333334</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
       </c>
-      <c r="J446" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L446" t="inlineStr">
         <is>
@@ -16330,16 +16924,14 @@
         <v>43.30200000000001</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
       </c>
-      <c r="J447" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L447" t="inlineStr">
         <is>
@@ -16373,16 +16965,14 @@
         <v>43.29866666666668</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
       </c>
-      <c r="J448" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L448" t="inlineStr">
         <is>
@@ -16416,16 +17006,14 @@
         <v>43.29366666666668</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
       </c>
-      <c r="J449" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L449" t="inlineStr">
         <is>
@@ -16459,16 +17047,14 @@
         <v>43.29033333333335</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
       </c>
-      <c r="J450" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L450" t="inlineStr">
         <is>
@@ -16502,16 +17088,14 @@
         <v>43.28533333333335</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
       </c>
-      <c r="J451" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L451" t="inlineStr">
         <is>
@@ -16545,16 +17129,14 @@
         <v>43.28200000000002</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
       </c>
-      <c r="J452" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L452" t="inlineStr">
         <is>
@@ -16588,16 +17170,14 @@
         <v>43.27700000000002</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
       </c>
-      <c r="J453" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L453" t="inlineStr">
         <is>
@@ -16631,16 +17211,14 @@
         <v>43.27366666666668</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
       </c>
-      <c r="J454" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L454" t="inlineStr">
         <is>
@@ -16674,16 +17252,14 @@
         <v>43.27033333333335</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
       </c>
-      <c r="J455" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L455" t="inlineStr">
         <is>
@@ -16717,16 +17293,14 @@
         <v>43.26700000000002</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
       </c>
-      <c r="J456" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L456" t="inlineStr">
         <is>
@@ -16760,16 +17334,14 @@
         <v>43.26200000000002</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
       </c>
-      <c r="J457" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L457" t="inlineStr">
         <is>
@@ -16803,16 +17375,14 @@
         <v>43.25366666666669</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
       </c>
-      <c r="J458" t="n">
-        <v>43.25</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L458" t="inlineStr">
         <is>
@@ -16846,16 +17416,14 @@
         <v>43.24866666666669</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
       </c>
-      <c r="J459" t="n">
-        <v>43.4</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L459" t="inlineStr">
         <is>
@@ -16889,16 +17457,14 @@
         <v>43.2436666666667</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
       </c>
-      <c r="J460" t="n">
-        <v>43.4</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L460" t="inlineStr">
         <is>
@@ -16932,16 +17498,14 @@
         <v>43.24033333333337</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
       </c>
-      <c r="J461" t="n">
-        <v>43.5</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L461" t="inlineStr">
         <is>
@@ -16975,16 +17539,14 @@
         <v>43.23700000000003</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
       </c>
-      <c r="J462" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L462" t="inlineStr">
         <is>
@@ -17018,16 +17580,14 @@
         <v>43.24200000000003</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
       </c>
-      <c r="J463" t="n">
-        <v>43.4</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L463" t="inlineStr">
         <is>
@@ -17068,7 +17628,7 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L464" t="inlineStr">
         <is>
@@ -17109,7 +17669,7 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L465" t="inlineStr">
         <is>
@@ -17150,7 +17710,7 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L466" t="inlineStr">
         <is>
@@ -17184,16 +17744,14 @@
         <v>43.26533333333336</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
       </c>
-      <c r="J467" t="n">
-        <v>43.4</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L467" t="inlineStr">
         <is>
@@ -17227,16 +17785,14 @@
         <v>43.27150000000002</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
       </c>
-      <c r="J468" t="n">
-        <v>43.4</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L468" t="inlineStr">
         <is>
@@ -17270,16 +17826,14 @@
         <v>43.27600000000002</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
       </c>
-      <c r="J469" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L469" t="inlineStr">
         <is>
@@ -17313,16 +17867,14 @@
         <v>43.28033333333336</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
       </c>
-      <c r="J470" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L470" t="inlineStr">
         <is>
@@ -17356,16 +17908,14 @@
         <v>43.28200000000003</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
       </c>
-      <c r="J471" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L471" t="inlineStr">
         <is>
@@ -17399,16 +17949,14 @@
         <v>43.2836666666667</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
       </c>
-      <c r="J472" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L472" t="inlineStr">
         <is>
@@ -17442,16 +17990,14 @@
         <v>43.28533333333338</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
       </c>
-      <c r="J473" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L473" t="inlineStr">
         <is>
@@ -17485,16 +18031,14 @@
         <v>43.29033333333338</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
       </c>
-      <c r="J474" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L474" t="inlineStr">
         <is>
@@ -17528,16 +18072,14 @@
         <v>43.29200000000005</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
       </c>
-      <c r="J475" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L475" t="inlineStr">
         <is>
@@ -17571,16 +18113,14 @@
         <v>43.29366666666672</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
       </c>
-      <c r="J476" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L476" t="inlineStr">
         <is>
@@ -17614,16 +18154,14 @@
         <v>43.29716666666673</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
       </c>
-      <c r="J477" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L477" t="inlineStr">
         <is>
@@ -17657,16 +18195,14 @@
         <v>43.30066666666673</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
       </c>
-      <c r="J478" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L478" t="inlineStr">
         <is>
@@ -17700,16 +18236,14 @@
         <v>43.3023333333334</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
       </c>
-      <c r="J479" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L479" t="inlineStr">
         <is>
@@ -17743,16 +18277,14 @@
         <v>43.30400000000007</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
       </c>
-      <c r="J480" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L480" t="inlineStr">
         <is>
@@ -17786,16 +18318,14 @@
         <v>43.30566666666675</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
       </c>
-      <c r="J481" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L481" t="inlineStr">
         <is>
@@ -17829,16 +18359,14 @@
         <v>43.30733333333342</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
       </c>
-      <c r="J482" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L482" t="inlineStr">
         <is>
@@ -17872,16 +18400,14 @@
         <v>43.31083333333342</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
       </c>
-      <c r="J483" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L483" t="inlineStr">
         <is>
@@ -17915,16 +18441,14 @@
         <v>43.31250000000009</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
       </c>
-      <c r="J484" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L484" t="inlineStr">
         <is>
@@ -17958,16 +18482,14 @@
         <v>43.31416666666676</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
       </c>
-      <c r="J485" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L485" t="inlineStr">
         <is>
@@ -18001,16 +18523,14 @@
         <v>43.31416666666676</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
       </c>
-      <c r="J486" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L486" t="inlineStr">
         <is>
@@ -18044,16 +18564,14 @@
         <v>43.31416666666676</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
       </c>
-      <c r="J487" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L487" t="inlineStr">
         <is>
@@ -18087,16 +18605,14 @@
         <v>43.31416666666676</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
       </c>
-      <c r="J488" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L488" t="inlineStr">
         <is>
@@ -18130,16 +18646,14 @@
         <v>43.31083333333343</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
       </c>
-      <c r="J489" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L489" t="inlineStr">
         <is>
@@ -18173,16 +18687,14 @@
         <v>43.31083333333343</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
       </c>
-      <c r="J490" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L490" t="inlineStr">
         <is>
@@ -18216,16 +18728,14 @@
         <v>43.31083333333343</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
       </c>
-      <c r="J491" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L491" t="inlineStr">
         <is>
@@ -18259,16 +18769,14 @@
         <v>43.31083333333343</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
       </c>
-      <c r="J492" t="n">
-        <v>43.3</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L492" t="inlineStr">
         <is>
@@ -18302,16 +18810,14 @@
         <v>43.3045000000001</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
       </c>
-      <c r="J493" t="n">
-        <v>43.11</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L493" t="inlineStr">
         <is>
@@ -18345,16 +18851,14 @@
         <v>43.29816666666677</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
       </c>
-      <c r="J494" t="n">
-        <v>42.92</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L494" t="inlineStr">
         <is>
@@ -18395,7 +18899,7 @@
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L495" t="inlineStr">
         <is>
@@ -18429,16 +18933,14 @@
         <v>43.28816666666675</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
       </c>
-      <c r="J496" t="n">
-        <v>43.1</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L496" t="inlineStr">
         <is>
@@ -18472,16 +18974,14 @@
         <v>43.28466666666676</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
       </c>
-      <c r="J497" t="n">
-        <v>43.1</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L497" t="inlineStr">
         <is>
@@ -18515,16 +19015,14 @@
         <v>43.28283333333342</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
       </c>
-      <c r="J498" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L498" t="inlineStr">
         <is>
@@ -18558,24 +19056,22 @@
         <v>43.28100000000008</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I499" t="n">
-        <v>0</v>
-      </c>
-      <c r="J499" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>1</v>
+        <v>0.983558352402746</v>
       </c>
     </row>
     <row r="500">
@@ -18601,22 +19097,14 @@
         <v>43.27916666666675</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I500" t="n">
-        <v>0</v>
-      </c>
-      <c r="J500" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="K500" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
+      <c r="L500" t="inlineStr"/>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -18644,22 +19132,14 @@
         <v>43.27750000000008</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
       </c>
-      <c r="J501" t="n">
-        <v>43.21</v>
-      </c>
-      <c r="K501" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
+      <c r="L501" t="inlineStr"/>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -18687,22 +19167,14 @@
         <v>43.28233333333342</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
       </c>
-      <c r="J502" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K502" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
+      <c r="L502" t="inlineStr"/>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -18730,22 +19202,14 @@
         <v>43.28400000000009</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
       </c>
-      <c r="J503" t="n">
-        <v>43.3</v>
-      </c>
-      <c r="K503" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
+      <c r="L503" t="inlineStr"/>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -18773,22 +19237,14 @@
         <v>43.28733333333343</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
       </c>
-      <c r="J504" t="n">
-        <v>43.3</v>
-      </c>
-      <c r="K504" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
+      <c r="L504" t="inlineStr"/>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -18816,22 +19272,14 @@
         <v>43.28900000000009</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
       </c>
-      <c r="J505" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K505" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
+      <c r="L505" t="inlineStr"/>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -18859,22 +19307,14 @@
         <v>43.28900000000009</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
       </c>
-      <c r="J506" t="n">
-        <v>43.3</v>
-      </c>
-      <c r="K506" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
+      <c r="L506" t="inlineStr"/>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -18902,22 +19342,14 @@
         <v>43.29066666666676</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
       </c>
-      <c r="J507" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K507" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
+      <c r="L507" t="inlineStr"/>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -18945,22 +19377,14 @@
         <v>43.29066666666676</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
       </c>
-      <c r="J508" t="n">
-        <v>43.3</v>
-      </c>
-      <c r="K508" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
+      <c r="L508" t="inlineStr"/>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -18988,22 +19412,14 @@
         <v>43.29233333333343</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
       </c>
-      <c r="J509" t="n">
-        <v>43.3</v>
-      </c>
-      <c r="K509" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
+      <c r="L509" t="inlineStr"/>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -19031,22 +19447,14 @@
         <v>43.29233333333343</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
       </c>
-      <c r="J510" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K510" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
+      <c r="L510" t="inlineStr"/>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -19074,22 +19482,14 @@
         <v>43.29566666666677</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
       </c>
-      <c r="J511" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K511" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
+      <c r="L511" t="inlineStr"/>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -19117,22 +19517,14 @@
         <v>43.29733333333343</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
       </c>
-      <c r="J512" t="n">
-        <v>43.3</v>
-      </c>
-      <c r="K512" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
+      <c r="L512" t="inlineStr"/>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -19160,22 +19552,14 @@
         <v>43.30066666666677</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
       </c>
-      <c r="J513" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K513" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
+      <c r="L513" t="inlineStr"/>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -19203,22 +19587,14 @@
         <v>43.30066666666677</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
       </c>
-      <c r="J514" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K514" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
+      <c r="L514" t="inlineStr"/>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -19246,22 +19622,14 @@
         <v>43.30233333333344</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
       </c>
-      <c r="J515" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K515" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
+      <c r="L515" t="inlineStr"/>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -19289,22 +19657,14 @@
         <v>43.30233333333344</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
       </c>
-      <c r="J516" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K516" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
+      <c r="L516" t="inlineStr"/>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -19332,22 +19692,14 @@
         <v>43.30566666666677</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
       </c>
-      <c r="J517" t="n">
-        <v>43.3</v>
-      </c>
-      <c r="K517" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
+      <c r="L517" t="inlineStr"/>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -19375,22 +19727,14 @@
         <v>43.30900000000011</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
       </c>
-      <c r="J518" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K518" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
+      <c r="L518" t="inlineStr"/>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -19418,22 +19762,14 @@
         <v>43.30733333333345</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
       </c>
-      <c r="J519" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K519" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
+      <c r="L519" t="inlineStr"/>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -19461,22 +19797,14 @@
         <v>43.30733333333345</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
       </c>
-      <c r="J520" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K520" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
+      <c r="L520" t="inlineStr"/>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -19504,22 +19832,14 @@
         <v>43.30566666666678</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
       </c>
-      <c r="J521" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K521" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
+      <c r="L521" t="inlineStr"/>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -19547,22 +19867,14 @@
         <v>43.30900000000012</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
       </c>
-      <c r="J522" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K522" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
+      <c r="L522" t="inlineStr"/>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -19590,22 +19902,14 @@
         <v>43.30900000000012</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
       </c>
-      <c r="J523" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K523" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
+      <c r="L523" t="inlineStr"/>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -19633,22 +19937,14 @@
         <v>43.30900000000012</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
       </c>
-      <c r="J524" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K524" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
+      <c r="L524" t="inlineStr"/>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -19676,22 +19972,14 @@
         <v>43.30900000000012</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
       </c>
-      <c r="J525" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K525" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
+      <c r="L525" t="inlineStr"/>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -19719,22 +20007,14 @@
         <v>43.30900000000012</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
       </c>
-      <c r="J526" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K526" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
+      <c r="L526" t="inlineStr"/>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -19762,22 +20042,14 @@
         <v>43.30900000000012</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
       </c>
-      <c r="J527" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K527" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
+      <c r="L527" t="inlineStr"/>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -19805,22 +20077,14 @@
         <v>43.30900000000012</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
       </c>
-      <c r="J528" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K528" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
+      <c r="L528" t="inlineStr"/>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -19848,22 +20112,14 @@
         <v>43.31066666666678</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
       </c>
-      <c r="J529" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K529" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
+      <c r="L529" t="inlineStr"/>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -19891,22 +20147,14 @@
         <v>43.31233333333345</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
       </c>
-      <c r="J530" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K530" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
+      <c r="L530" t="inlineStr"/>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -19934,22 +20182,14 @@
         <v>43.31566666666678</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
       </c>
-      <c r="J531" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K531" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
+      <c r="L531" t="inlineStr"/>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -19977,22 +20217,14 @@
         <v>43.31900000000011</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
       </c>
-      <c r="J532" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K532" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
+      <c r="L532" t="inlineStr"/>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -20026,14 +20258,8 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
+      <c r="L533" t="inlineStr"/>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -20067,14 +20293,8 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
+      <c r="L534" t="inlineStr"/>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -20108,14 +20328,8 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
+      <c r="L535" t="inlineStr"/>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -20149,14 +20363,8 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
+      <c r="L536" t="inlineStr"/>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -20190,14 +20398,8 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
+      <c r="L537" t="inlineStr"/>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -20228,19 +20430,13 @@
         <v>0</v>
       </c>
       <c r="I538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L538" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
+      <c r="L538" t="inlineStr"/>
       <c r="M538" t="n">
-        <v>1.006574074074074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
@@ -20269,7 +20465,7 @@
         <v>0</v>
       </c>
       <c r="I539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
@@ -21564,7 +21760,7 @@
         <v>0</v>
       </c>
       <c r="I576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
@@ -21599,7 +21795,7 @@
         <v>0</v>
       </c>
       <c r="I577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>

--- a/BackTest/2020-01-12 BackTest IPX.xlsx
+++ b/BackTest/2020-01-12 BackTest IPX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>1015468.43133874</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>999493.5100387397</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>999538.0081387396</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1001703.80803874</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1000167.01323874</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>999516.0550387396</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1001931.68623874</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>1000401.57573874</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>1000401.57573874</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1000401.57573874</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>1000401.57573874</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>1000401.57573874</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>1000401.57573874</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1000401.57573874</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>1000592.86893874</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>1000592.86893874</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>1000592.86893874</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>1025052.79273874</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>1019955.08683874</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1019955.08683874</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1019955.08683874</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1019955.08683874</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>1020157.40963874</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1020157.40963874</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>1082648.22603874</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>1082648.22603874</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>1080999.626838739</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>1081859.830538739</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>1083089.026138739</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>1082763.547038739</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>1082763.547038739</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>1083414.505238739</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>1083414.505238739</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>1083414.505238739</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>1082210.519938739</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1083069.490138739</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>1083069.490138739</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>1080667.212838739</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>1080667.212838739</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>1080667.212838739</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>1080667.212838739</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>1082851.249438739</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>1082514.770338739</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>1084282.438138739</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>1084282.438138739</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>1087549.172838739</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>1085503.144838739</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>1085503.144838739</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>1085503.144838739</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>1084852.186638739</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>1084852.186638739</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>1086609.331238739</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>1086283.852138739</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>1086283.852138739</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>1087827.931538739</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>1086037.449638739</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>1086037.449638739</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>1086917.843238739</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>1085736.474738739</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>1085736.474738739</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>1088651.167038739</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>1094730.251638739</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>1094730.251638739</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>1095431.082338739</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>1093912.427738739</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>1093912.427738739</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>1093912.427738739</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>1093912.427738739</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>1093912.427738739</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>1096245.703238739</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>1094684.160538739</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>1096233.011938739</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>1096233.011938739</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>1095333.544538739</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>1095333.544538739</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>1095333.544538739</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>1095333.544538739</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>1095333.544538739</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>1096237.285238739</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>1096237.285238739</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>1097246.631438739</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>1097246.631438739</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>1095727.947538739</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>1095727.947538739</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>1095727.947538739</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>1095727.947538739</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>1095657.687738739</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>1095657.687738739</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>1095657.687738739</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>1095782.212338739</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>1095682.212338739</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>1098682.212338739</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>1098682.212338739</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>1098671.212338739</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>1098671.212338739</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>1094505.313938739</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>1094505.313938739</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>1099051.975038738</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>1099051.975038738</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>1099051.975038738</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>1099051.975038738</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>1100235.077238739</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>1100235.077238739</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>1099909.598138738</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>1100790.895338738</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>1100790.895338738</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>1100790.895338738</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>1100790.895338738</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>1100465.416238738</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>1101689.457938738</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>1101689.457938738</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>1101689.457938738</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>1100713.020638738</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>1100713.020638738</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>1100713.020638738</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>1100713.020638738</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>1101901.302138738</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>1101575.823038738</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>1101575.823038738</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>1103662.612838738</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>1103337.133738738</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>1103337.133738738</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>1103988.091938738</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>1102202.600238738</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>1103098.226538738</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>1103098.226538738</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>1103098.226538738</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>1103098.226538738</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>1137885.570138738</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>1132914.987438738</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>1132914.987438738</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>1133771.555738738</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>1121534.496938738</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>1155332.849338738</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>1154681.891238738</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>1163034.766838738</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>1163034.766838738</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>1163034.766838738</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>1163034.766838738</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>1163034.766838738</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>1163190.300438738</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>1138739.904438738</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>1138739.904438738</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>1138739.904438738</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>1125077.145638738</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>1128628.626738738</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>1128628.626738738</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>1129723.616138738</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>1129723.616138738</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>1127956.309938738</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>1127956.309938738</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>1127956.309938738</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>1127956.309938738</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>1127956.309938738</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>1127956.309938738</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>1129168.406038738</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>1129168.406038738</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>1128842.927038738</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>1129704.775038738</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>1129704.775038738</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>1129704.775038738</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>1128972.250638738</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>1131061.908438738</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>1131061.908438738</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>1131061.908438738</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>1131061.908438738</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>1130736.429438738</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>1132283.015938738</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>1132283.015938738</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>1132283.015938738</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>1131306.578838738</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>1131306.578838738</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>1131306.578838738</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>1131306.578838738</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>1131306.578838738</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>1131306.578838738</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>1132191.634738738</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>1131215.197638738</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>1131215.197638738</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>1131215.197638738</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>1131215.197638738</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>1131215.197638738</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>1132428.705938738</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>1132428.705938738</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>1142138.705938738</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>1141813.226938738</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>1158951.368638738</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>1152048.543238738</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>1152944.487838738</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>1149575.355238738</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>1149575.355238738</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>1150573.743538738</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>1151600.180638738</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>1150411.667038738</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>1150411.667038738</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>1150411.667038738</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>1150861.667038738</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>1149361.667038738</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>1138087.795838738</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>1138087.795838738</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>1138087.795838738</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>1115741.657538738</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>1094709.036138738</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>1096725.490738738</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>1095150.832838738</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>1093296.727238738</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>1081514.214038738</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>1083298.276838738</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>1083298.276838738</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>1082114.267438738</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>1082841.883238738</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -15070,14 +15070,10 @@
         <v>889110.9203387382</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
-      </c>
-      <c r="I445" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="J445" t="n">
-        <v>43.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
@@ -15107,19 +15103,11 @@
         <v>889110.9203387382</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
-      </c>
-      <c r="I446" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="J446" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15151,14 +15139,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15187,14 +15169,10 @@
         <v>889110.9203387382</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
-      </c>
-      <c r="I448" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="J448" t="n">
-        <v>43.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
@@ -15224,19 +15202,11 @@
         <v>889110.9203387382</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
-      </c>
-      <c r="I449" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="J449" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15265,19 +15235,11 @@
         <v>889110.9203387382</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
-      </c>
-      <c r="I450" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="J450" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15306,14 +15268,10 @@
         <v>889110.9203387382</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
-      </c>
-      <c r="I451" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="J451" t="n">
-        <v>43.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
@@ -15343,19 +15301,11 @@
         <v>889110.9203387382</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
-      </c>
-      <c r="I452" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="J452" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15384,19 +15334,11 @@
         <v>889110.9203387382</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
-      </c>
-      <c r="I453" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="J453" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15425,14 +15367,10 @@
         <v>889110.9203387382</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
-      </c>
-      <c r="I454" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="J454" t="n">
-        <v>43.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
@@ -15462,19 +15400,11 @@
         <v>889110.9203387382</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
-      </c>
-      <c r="I455" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="J455" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15503,19 +15433,11 @@
         <v>889110.9203387382</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
-      </c>
-      <c r="I456" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="J456" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15544,19 +15466,11 @@
         <v>895277.3910387382</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
-      </c>
-      <c r="I457" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="J457" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15585,19 +15499,11 @@
         <v>895277.3910387382</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
-      </c>
-      <c r="I458" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J458" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15629,14 +15535,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15668,14 +15568,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15707,14 +15601,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15746,14 +15634,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15785,14 +15667,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15824,14 +15700,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15863,14 +15733,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15899,19 +15763,11 @@
         <v>839490.7482387383</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
-      </c>
-      <c r="I466" t="n">
-        <v>43.03</v>
-      </c>
-      <c r="J466" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15940,19 +15796,11 @@
         <v>839490.7482387383</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
-      </c>
-      <c r="I467" t="n">
-        <v>43.03</v>
-      </c>
-      <c r="J467" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15981,19 +15829,11 @@
         <v>839490.7482387383</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
-      </c>
-      <c r="I468" t="n">
-        <v>43.03</v>
-      </c>
-      <c r="J468" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16022,19 +15862,15 @@
         <v>840690.7482387383</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I469" t="n">
         <v>43.03</v>
       </c>
       <c r="J469" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>43.03</v>
+      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16063,17 +15899,17 @@
         <v>843072.7316387383</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I470" t="n">
         <v>43.04</v>
       </c>
       <c r="J470" t="n">
-        <v>43.5</v>
+        <v>43.03</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L470" t="n">
@@ -16104,17 +15940,17 @@
         <v>843072.7316387383</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I471" t="n">
         <v>43.2</v>
       </c>
       <c r="J471" t="n">
-        <v>43.5</v>
+        <v>43.03</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L471" t="n">
@@ -16145,19 +15981,15 @@
         <v>843072.7316387383</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I472" t="n">
         <v>43.2</v>
       </c>
       <c r="J472" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>43.2</v>
+      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16186,17 +16018,17 @@
         <v>843072.7316387383</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I473" t="n">
         <v>43.2</v>
       </c>
       <c r="J473" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L473" t="n">
@@ -16227,13 +16059,13 @@
         <v>843072.7316387383</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I474" t="n">
         <v>43.2</v>
       </c>
       <c r="J474" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -16268,13 +16100,13 @@
         <v>843072.7316387383</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I475" t="n">
         <v>43.2</v>
       </c>
       <c r="J475" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -16309,13 +16141,13 @@
         <v>843054.9368387383</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I476" t="n">
         <v>43.2</v>
       </c>
       <c r="J476" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -16350,13 +16182,13 @@
         <v>843054.9368387383</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I477" t="n">
         <v>43.09</v>
       </c>
       <c r="J477" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -16391,13 +16223,13 @@
         <v>843120.9368387383</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I478" t="n">
         <v>43.09</v>
       </c>
       <c r="J478" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -16432,13 +16264,13 @@
         <v>843120.9368387383</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I479" t="n">
         <v>43.2</v>
       </c>
       <c r="J479" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -16473,13 +16305,13 @@
         <v>843120.9368387383</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I480" t="n">
         <v>43.2</v>
       </c>
       <c r="J480" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -16514,13 +16346,13 @@
         <v>843120.9368387383</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I481" t="n">
         <v>43.2</v>
       </c>
       <c r="J481" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -16555,13 +16387,13 @@
         <v>837120.9368387383</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I482" t="n">
         <v>43.2</v>
       </c>
       <c r="J482" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -16596,13 +16428,13 @@
         <v>837142.9368387383</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I483" t="n">
         <v>43.09</v>
       </c>
       <c r="J483" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -16637,13 +16469,13 @@
         <v>837142.9368387383</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I484" t="n">
         <v>43.2</v>
       </c>
       <c r="J484" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -16678,13 +16510,13 @@
         <v>838369.6225387383</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I485" t="n">
         <v>43.2</v>
       </c>
       <c r="J485" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -16719,13 +16551,13 @@
         <v>838369.6225387383</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I486" t="n">
         <v>43.3</v>
       </c>
       <c r="J486" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -16760,13 +16592,13 @@
         <v>838369.6225387383</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I487" t="n">
         <v>43.3</v>
       </c>
       <c r="J487" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -16801,13 +16633,13 @@
         <v>839970.8151387383</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I488" t="n">
         <v>43.3</v>
       </c>
       <c r="J488" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -16842,13 +16674,13 @@
         <v>835074.2977387382</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I489" t="n">
         <v>43.5</v>
       </c>
       <c r="J489" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -16883,13 +16715,13 @@
         <v>835074.2977387382</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I490" t="n">
         <v>43.3</v>
       </c>
       <c r="J490" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -16924,13 +16756,13 @@
         <v>835074.2977387382</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I491" t="n">
         <v>43.3</v>
       </c>
       <c r="J491" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -16965,13 +16797,13 @@
         <v>835074.2977387382</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I492" t="n">
         <v>43.3</v>
       </c>
       <c r="J492" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -17006,13 +16838,13 @@
         <v>835074.2977387382</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I493" t="n">
         <v>43.3</v>
       </c>
       <c r="J493" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -17047,13 +16879,13 @@
         <v>835096.2977387382</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I494" t="n">
         <v>43.3</v>
       </c>
       <c r="J494" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -17088,13 +16920,13 @@
         <v>835096.2977387382</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I495" t="n">
         <v>43.5</v>
       </c>
       <c r="J495" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -17129,13 +16961,13 @@
         <v>830689.4320387383</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I496" t="n">
         <v>43.5</v>
       </c>
       <c r="J496" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -17170,13 +17002,13 @@
         <v>830689.4320387383</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I497" t="n">
         <v>43.31</v>
       </c>
       <c r="J497" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -17211,13 +17043,13 @@
         <v>830689.4320387383</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I498" t="n">
         <v>43.31</v>
       </c>
       <c r="J498" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -17252,13 +17084,13 @@
         <v>830689.4320387383</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I499" t="n">
         <v>43.31</v>
       </c>
       <c r="J499" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -17293,13 +17125,13 @@
         <v>830689.4320387383</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I500" t="n">
         <v>43.31</v>
       </c>
       <c r="J500" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -17334,13 +17166,13 @@
         <v>817178.9667387382</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I501" t="n">
         <v>43.31</v>
       </c>
       <c r="J501" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -17375,13 +17207,13 @@
         <v>817178.9667387382</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I502" t="n">
         <v>43.2</v>
       </c>
       <c r="J502" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -17416,13 +17248,13 @@
         <v>817178.9667387382</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I503" t="n">
         <v>43.2</v>
       </c>
       <c r="J503" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -17457,13 +17289,13 @@
         <v>843704.2147387383</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I504" t="n">
         <v>43.2</v>
       </c>
       <c r="J504" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -17498,13 +17330,13 @@
         <v>843704.2147387383</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I505" t="n">
         <v>43.3</v>
       </c>
       <c r="J505" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -17539,13 +17371,13 @@
         <v>843704.2147387383</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I506" t="n">
         <v>43.3</v>
       </c>
       <c r="J506" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -17580,13 +17412,13 @@
         <v>843704.2147387383</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I507" t="n">
         <v>43.3</v>
       </c>
       <c r="J507" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -17621,13 +17453,13 @@
         <v>843053.2567387383</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I508" t="n">
         <v>43.3</v>
       </c>
       <c r="J508" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -17662,13 +17494,13 @@
         <v>845695.7198387383</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I509" t="n">
         <v>43.2</v>
       </c>
       <c r="J509" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -17703,13 +17535,13 @@
         <v>845370.2408387383</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I510" t="n">
         <v>43.3</v>
       </c>
       <c r="J510" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -17744,13 +17576,13 @@
         <v>845695.7198387383</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I511" t="n">
         <v>43.2</v>
       </c>
       <c r="J511" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -17785,13 +17617,13 @@
         <v>843933.0144387383</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I512" t="n">
         <v>43.3</v>
       </c>
       <c r="J512" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -17826,13 +17658,13 @@
         <v>845560.4096387384</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I513" t="n">
         <v>43.2</v>
       </c>
       <c r="J513" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -17867,13 +17699,13 @@
         <v>845560.4096387384</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I514" t="n">
         <v>43.3</v>
       </c>
       <c r="J514" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -17908,13 +17740,13 @@
         <v>845560.4096387384</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I515" t="n">
         <v>43.3</v>
       </c>
       <c r="J515" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -17949,13 +17781,13 @@
         <v>845485.0216387383</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I516" t="n">
         <v>43.3</v>
       </c>
       <c r="J516" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -17990,13 +17822,13 @@
         <v>845485.0216387383</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I517" t="n">
         <v>43.2</v>
       </c>
       <c r="J517" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -18031,13 +17863,13 @@
         <v>845689.6933387383</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I518" t="n">
         <v>43.2</v>
       </c>
       <c r="J518" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -18072,13 +17904,13 @@
         <v>845689.6933387383</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I519" t="n">
         <v>43.4</v>
       </c>
       <c r="J519" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -18113,13 +17945,13 @@
         <v>846711.5531387383</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I520" t="n">
         <v>43.4</v>
       </c>
       <c r="J520" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -18154,13 +17986,13 @@
         <v>794970.7762387383</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I521" t="n">
         <v>43.5</v>
       </c>
       <c r="J521" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -18195,13 +18027,13 @@
         <v>795947.2133387383</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I522" t="n">
         <v>43.2</v>
       </c>
       <c r="J522" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -18236,13 +18068,13 @@
         <v>795947.2133387383</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I523" t="n">
         <v>43.4</v>
       </c>
       <c r="J523" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -18277,13 +18109,13 @@
         <v>794414.7849387383</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I524" t="n">
         <v>43.4</v>
       </c>
       <c r="J524" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -18318,13 +18150,13 @@
         <v>795274.4220387384</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I525" t="n">
         <v>43.3</v>
       </c>
       <c r="J525" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -18359,13 +18191,13 @@
         <v>795274.4220387384</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I526" t="n">
         <v>43.4</v>
       </c>
       <c r="J526" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -18400,13 +18232,13 @@
         <v>795274.4220387384</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I527" t="n">
         <v>43.4</v>
       </c>
       <c r="J527" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -18441,13 +18273,13 @@
         <v>794053.7500387384</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I528" t="n">
         <v>43.4</v>
       </c>
       <c r="J528" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -18482,13 +18314,13 @@
         <v>794053.7500387384</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I529" t="n">
         <v>43.3</v>
       </c>
       <c r="J529" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -18523,13 +18355,13 @@
         <v>794053.7500387384</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I530" t="n">
         <v>43.3</v>
       </c>
       <c r="J530" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -18564,13 +18396,13 @@
         <v>794053.7500387384</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I531" t="n">
         <v>43.3</v>
       </c>
       <c r="J531" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -18605,13 +18437,13 @@
         <v>794053.7500387384</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I532" t="n">
         <v>43.3</v>
       </c>
       <c r="J532" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -18646,13 +18478,13 @@
         <v>795629.4576387383</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I533" t="n">
         <v>43.3</v>
       </c>
       <c r="J533" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -18687,13 +18519,13 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I534" t="n">
         <v>43.5</v>
       </c>
       <c r="J534" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -18728,13 +18560,13 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I535" t="n">
         <v>43.3</v>
       </c>
       <c r="J535" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -18769,13 +18601,13 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I536" t="n">
         <v>43.3</v>
       </c>
       <c r="J536" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -18810,13 +18642,13 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I537" t="n">
         <v>43.3</v>
       </c>
       <c r="J537" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -18851,13 +18683,13 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I538" t="n">
         <v>43.3</v>
       </c>
       <c r="J538" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -18892,13 +18724,13 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I539" t="n">
         <v>43.3</v>
       </c>
       <c r="J539" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -18933,13 +18765,13 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I540" t="n">
         <v>43.3</v>
       </c>
       <c r="J540" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -18974,13 +18806,13 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I541" t="n">
         <v>43.3</v>
       </c>
       <c r="J541" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -19015,13 +18847,13 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I542" t="n">
         <v>43.3</v>
       </c>
       <c r="J542" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -19056,13 +18888,13 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I543" t="n">
         <v>43.3</v>
       </c>
       <c r="J543" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -19097,13 +18929,13 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I544" t="n">
         <v>43.3</v>
       </c>
       <c r="J544" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -19138,13 +18970,13 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I545" t="n">
         <v>43.3</v>
       </c>
       <c r="J545" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -19179,13 +19011,13 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I546" t="n">
         <v>43.3</v>
       </c>
       <c r="J546" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -19220,13 +19052,13 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I547" t="n">
         <v>43.3</v>
       </c>
       <c r="J547" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -19261,13 +19093,13 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I548" t="n">
         <v>43.3</v>
       </c>
       <c r="J548" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -19302,13 +19134,13 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I549" t="n">
         <v>43.3</v>
       </c>
       <c r="J549" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -19343,13 +19175,13 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I550" t="n">
         <v>43.3</v>
       </c>
       <c r="J550" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -19384,13 +19216,13 @@
         <v>794107.9657387383</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I551" t="n">
         <v>43.3</v>
       </c>
       <c r="J551" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -19425,13 +19257,13 @@
         <v>736769.3048387383</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I552" t="n">
         <v>43.3</v>
       </c>
       <c r="J552" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -19466,13 +19298,13 @@
         <v>736769.3048387383</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I553" t="n">
         <v>42.92</v>
       </c>
       <c r="J553" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -19507,13 +19339,13 @@
         <v>737094.7838387383</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I554" t="n">
         <v>42.92</v>
       </c>
       <c r="J554" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -19548,13 +19380,13 @@
         <v>737094.7838387383</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I555" t="n">
         <v>43.2</v>
       </c>
       <c r="J555" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -19589,13 +19421,13 @@
         <v>735343.6999387384</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I556" t="n">
         <v>43.2</v>
       </c>
       <c r="J556" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -19630,13 +19462,13 @@
         <v>736213.8818387383</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I557" t="n">
         <v>43.1</v>
       </c>
       <c r="J557" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -19671,13 +19503,13 @@
         <v>736213.8818387383</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I558" t="n">
         <v>43.2</v>
       </c>
       <c r="J558" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -19712,13 +19544,13 @@
         <v>736213.8818387383</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I559" t="n">
         <v>43.2</v>
       </c>
       <c r="J559" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -19753,13 +19585,13 @@
         <v>743213.8818387383</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I560" t="n">
         <v>43.2</v>
       </c>
       <c r="J560" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -19794,13 +19626,13 @@
         <v>748728.6181387383</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I561" t="n">
         <v>43.21</v>
       </c>
       <c r="J561" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -19835,13 +19667,13 @@
         <v>746952.9101387383</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I562" t="n">
         <v>43.49</v>
       </c>
       <c r="J562" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -19876,13 +19708,13 @@
         <v>748175.7276387383</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I563" t="n">
         <v>43.3</v>
       </c>
       <c r="J563" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -19917,13 +19749,13 @@
         <v>748175.7276387383</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I564" t="n">
         <v>43.4</v>
       </c>
       <c r="J564" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -19958,13 +19790,13 @@
         <v>747524.7695387383</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I565" t="n">
         <v>43.4</v>
       </c>
       <c r="J565" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -19999,13 +19831,13 @@
         <v>748501.2066387383</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I566" t="n">
         <v>43.3</v>
       </c>
       <c r="J566" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -20040,13 +19872,13 @@
         <v>747307.1806387383</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I567" t="n">
         <v>43.4</v>
       </c>
       <c r="J567" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -20081,13 +19913,13 @@
         <v>747307.1806387383</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I568" t="n">
         <v>43.3</v>
       </c>
       <c r="J568" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -20122,13 +19954,13 @@
         <v>747307.1806387383</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I569" t="n">
         <v>43.3</v>
       </c>
       <c r="J569" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -20163,13 +19995,13 @@
         <v>747632.6596387384</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I570" t="n">
         <v>43.3</v>
       </c>
       <c r="J570" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -20204,13 +20036,13 @@
         <v>747632.6596387384</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I571" t="n">
         <v>43.4</v>
       </c>
       <c r="J571" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -20245,13 +20077,13 @@
         <v>747632.6596387384</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I572" t="n">
         <v>43.4</v>
       </c>
       <c r="J572" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
@@ -20286,13 +20118,13 @@
         <v>746330.7434387384</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I573" t="n">
         <v>43.4</v>
       </c>
       <c r="J573" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
@@ -20327,13 +20159,13 @@
         <v>748072.3802387384</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I574" t="n">
         <v>43.3</v>
       </c>
       <c r="J574" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
@@ -20368,13 +20200,13 @@
         <v>746888.1066387384</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I575" t="n">
         <v>43.4</v>
       </c>
       <c r="J575" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -20409,13 +20241,13 @@
         <v>749382.7041387385</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I576" t="n">
         <v>43.3</v>
       </c>
       <c r="J576" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -20450,13 +20282,13 @@
         <v>749382.7041387385</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I577" t="n">
         <v>43.4</v>
       </c>
       <c r="J577" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -20491,13 +20323,13 @@
         <v>748170.5631387385</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I578" t="n">
         <v>43.4</v>
       </c>
       <c r="J578" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
@@ -20532,13 +20364,13 @@
         <v>749380.3013387385</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I579" t="n">
         <v>43.3</v>
       </c>
       <c r="J579" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
@@ -20573,13 +20405,13 @@
         <v>749380.3013387385</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I580" t="n">
         <v>43.4</v>
       </c>
       <c r="J580" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -20614,13 +20446,13 @@
         <v>749380.3013387385</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I581" t="n">
         <v>43.4</v>
       </c>
       <c r="J581" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -20655,13 +20487,13 @@
         <v>749380.3013387385</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I582" t="n">
         <v>43.4</v>
       </c>
       <c r="J582" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K582" t="inlineStr">
         <is>
@@ -20696,13 +20528,13 @@
         <v>749380.3013387385</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I583" t="n">
         <v>43.4</v>
       </c>
       <c r="J583" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -20737,13 +20569,13 @@
         <v>748729.3433387385</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I584" t="n">
         <v>43.4</v>
       </c>
       <c r="J584" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
@@ -20778,13 +20610,13 @@
         <v>750892.7540387386</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I585" t="n">
         <v>43.3</v>
       </c>
       <c r="J585" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -20819,13 +20651,13 @@
         <v>750892.7540387386</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I586" t="n">
         <v>43.4</v>
       </c>
       <c r="J586" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -20860,13 +20692,13 @@
         <v>750892.7540387386</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I587" t="n">
         <v>43.4</v>
       </c>
       <c r="J587" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -20901,13 +20733,13 @@
         <v>750892.7540387386</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I588" t="n">
         <v>43.4</v>
       </c>
       <c r="J588" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K588" t="inlineStr">
         <is>
@@ -20942,13 +20774,13 @@
         <v>750892.7540387386</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I589" t="n">
         <v>43.4</v>
       </c>
       <c r="J589" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -20983,13 +20815,13 @@
         <v>782199.9626387386</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I590" t="n">
         <v>43.4</v>
       </c>
       <c r="J590" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -21024,13 +20856,13 @@
         <v>782199.9626387386</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I591" t="n">
         <v>43.5</v>
       </c>
       <c r="J591" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -21065,13 +20897,13 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I592" t="n">
         <v>43.5</v>
       </c>
       <c r="J592" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
@@ -21106,13 +20938,13 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I593" t="n">
         <v>43.7</v>
       </c>
       <c r="J593" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -21147,13 +20979,13 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I594" t="n">
         <v>43.7</v>
       </c>
       <c r="J594" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -21188,13 +21020,13 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I595" t="n">
         <v>43.7</v>
       </c>
       <c r="J595" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -21229,13 +21061,13 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I596" t="n">
         <v>43.7</v>
       </c>
       <c r="J596" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
@@ -21270,13 +21102,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
-      </c>
-      <c r="I597" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
       <c r="J597" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -21311,13 +21141,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
-      </c>
-      <c r="I598" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
       <c r="J598" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K598" t="inlineStr">
         <is>
@@ -21352,13 +21180,13 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I599" t="n">
         <v>43.7</v>
       </c>
       <c r="J599" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K599" t="inlineStr">
         <is>
@@ -21393,13 +21221,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
-      </c>
-      <c r="I600" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
       <c r="J600" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
@@ -21434,13 +21260,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
-      </c>
-      <c r="I601" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
       <c r="J601" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K601" t="inlineStr">
         <is>
@@ -21475,13 +21299,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
-      </c>
-      <c r="I602" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
       <c r="J602" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K602" t="inlineStr">
         <is>
@@ -21516,13 +21338,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
-      </c>
-      <c r="I603" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
       <c r="J603" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K603" t="inlineStr">
         <is>
@@ -21557,13 +21377,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
-      </c>
-      <c r="I604" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
       <c r="J604" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
@@ -21598,13 +21416,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
-      </c>
-      <c r="I605" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
       <c r="J605" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K605" t="inlineStr">
         <is>
@@ -21639,13 +21455,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
-      </c>
-      <c r="I606" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
       <c r="J606" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
@@ -21680,13 +21494,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
-      </c>
-      <c r="I607" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
       <c r="J607" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
@@ -21721,13 +21533,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
-      </c>
-      <c r="I608" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
       <c r="J608" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K608" t="inlineStr">
         <is>
@@ -21762,13 +21572,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
-      </c>
-      <c r="I609" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
       <c r="J609" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K609" t="inlineStr">
         <is>
@@ -21803,13 +21611,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
-      </c>
-      <c r="I610" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
       <c r="J610" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K610" t="inlineStr">
         <is>
@@ -21844,13 +21650,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
-      </c>
-      <c r="I611" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
       <c r="J611" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K611" t="inlineStr">
         <is>
@@ -21885,13 +21689,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
-      </c>
-      <c r="I612" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
       <c r="J612" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K612" t="inlineStr">
         <is>
@@ -21926,13 +21728,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
-      </c>
-      <c r="I613" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
       <c r="J613" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K613" t="inlineStr">
         <is>
@@ -21967,13 +21767,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
-      </c>
-      <c r="I614" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
       <c r="J614" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K614" t="inlineStr">
         <is>
@@ -22008,13 +21806,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
-      </c>
-      <c r="I615" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
       <c r="J615" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K615" t="inlineStr">
         <is>
@@ -22049,13 +21845,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
-      </c>
-      <c r="I616" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
       <c r="J616" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K616" t="inlineStr">
         <is>
@@ -22094,7 +21888,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K617" t="inlineStr">
         <is>
@@ -22129,13 +21923,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
-      </c>
-      <c r="I618" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
       <c r="J618" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K618" t="inlineStr">
         <is>
@@ -22170,13 +21962,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
-      </c>
-      <c r="I619" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
       <c r="J619" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K619" t="inlineStr">
         <is>
@@ -22211,13 +22001,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
-      </c>
-      <c r="I620" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
       <c r="J620" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K620" t="inlineStr">
         <is>
@@ -22252,13 +22040,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
-      </c>
-      <c r="I621" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
       <c r="J621" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K621" t="inlineStr">
         <is>
@@ -22293,13 +22079,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
-      </c>
-      <c r="I622" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
       <c r="J622" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K622" t="inlineStr">
         <is>
@@ -22334,13 +22118,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
-      </c>
-      <c r="I623" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
       <c r="J623" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
@@ -22375,13 +22157,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
-      </c>
-      <c r="I624" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
       <c r="J624" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -22416,13 +22196,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
-      </c>
-      <c r="I625" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
       <c r="J625" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -22457,13 +22235,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
-      </c>
-      <c r="I626" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
       <c r="J626" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -22498,13 +22274,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
-      </c>
-      <c r="I627" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
       <c r="J627" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -22539,13 +22313,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
-      </c>
-      <c r="I628" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
       <c r="J628" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -22580,13 +22352,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
-      </c>
-      <c r="I629" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
       <c r="J629" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -22621,13 +22391,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
-      </c>
-      <c r="I630" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
       <c r="J630" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -22662,13 +22430,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
-      </c>
-      <c r="I631" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
       <c r="J631" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -22703,13 +22469,11 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
-      </c>
-      <c r="I632" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
       <c r="J632" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -22748,7 +22512,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -22787,7 +22551,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -22826,7 +22590,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -22865,7 +22629,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -22904,7 +22668,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -22943,7 +22707,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -22982,7 +22746,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -23021,7 +22785,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -23060,7 +22824,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -23099,7 +22863,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -23138,7 +22902,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -23177,7 +22941,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -23216,7 +22980,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -23255,7 +23019,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -23294,7 +23058,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -23333,7 +23097,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -23372,7 +23136,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -23411,7 +23175,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -23450,7 +23214,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -23489,7 +23253,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -23528,7 +23292,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
@@ -23567,7 +23331,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -23606,7 +23370,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -23645,7 +23409,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -23684,7 +23448,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -23723,7 +23487,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -23762,7 +23526,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -23801,7 +23565,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -23840,7 +23604,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -23879,7 +23643,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -23918,7 +23682,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -23957,7 +23721,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -23996,7 +23760,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -24035,7 +23799,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
@@ -24074,7 +23838,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K667" t="inlineStr">
         <is>
@@ -24113,7 +23877,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K668" t="inlineStr">
         <is>
@@ -24152,7 +23916,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K669" t="inlineStr">
         <is>
@@ -24191,7 +23955,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K670" t="inlineStr">
         <is>
@@ -24230,7 +23994,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K671" t="inlineStr">
         <is>
@@ -24269,7 +24033,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K672" t="inlineStr">
         <is>
@@ -24308,7 +24072,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K673" t="inlineStr">
         <is>
@@ -24347,7 +24111,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K674" t="inlineStr">
         <is>
@@ -24386,7 +24150,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K675" t="inlineStr">
         <is>
@@ -24425,7 +24189,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K676" t="inlineStr">
         <is>
@@ -24464,7 +24228,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K677" t="inlineStr">
         <is>
@@ -24503,7 +24267,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K678" t="inlineStr">
         <is>
@@ -24542,7 +24306,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K679" t="inlineStr">
         <is>
@@ -24581,7 +24345,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -24620,7 +24384,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K681" t="inlineStr">
         <is>
@@ -24659,7 +24423,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
@@ -24698,7 +24462,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
@@ -24737,7 +24501,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -24776,7 +24540,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K685" t="inlineStr">
         <is>
@@ -24815,7 +24579,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K686" t="inlineStr">
         <is>
@@ -24854,7 +24618,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K687" t="inlineStr">
         <is>
@@ -24893,7 +24657,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K688" t="inlineStr">
         <is>
@@ -24932,7 +24696,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K689" t="inlineStr">
         <is>
@@ -24971,7 +24735,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K690" t="inlineStr">
         <is>
@@ -25010,7 +24774,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K691" t="inlineStr">
         <is>
@@ -25049,7 +24813,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K692" t="inlineStr">
         <is>
@@ -25088,7 +24852,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K693" t="inlineStr">
         <is>
@@ -25127,7 +24891,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K694" t="inlineStr">
         <is>
@@ -25166,7 +24930,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K695" t="inlineStr">
         <is>
@@ -25205,7 +24969,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K696" t="inlineStr">
         <is>
@@ -25244,7 +25008,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K697" t="inlineStr">
         <is>
@@ -25283,7 +25047,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K698" t="inlineStr">
         <is>
@@ -25322,7 +25086,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K699" t="inlineStr">
         <is>
@@ -25361,7 +25125,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K700" t="inlineStr">
         <is>
@@ -25400,7 +25164,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K701" t="inlineStr">
         <is>
@@ -25439,7 +25203,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K702" t="inlineStr">
         <is>
@@ -25478,7 +25242,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K703" t="inlineStr">
         <is>
@@ -25517,7 +25281,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K704" t="inlineStr">
         <is>
@@ -25556,7 +25320,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K705" t="inlineStr">
         <is>
@@ -25595,7 +25359,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K706" t="inlineStr">
         <is>
@@ -25634,7 +25398,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K707" t="inlineStr">
         <is>
@@ -25673,7 +25437,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K708" t="inlineStr">
         <is>
@@ -25712,7 +25476,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K709" t="inlineStr">
         <is>
@@ -25751,7 +25515,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K710" t="inlineStr">
         <is>
@@ -25790,7 +25554,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K711" t="inlineStr">
         <is>
@@ -25829,7 +25593,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K712" t="inlineStr">
         <is>
@@ -25868,7 +25632,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K713" t="inlineStr">
         <is>
@@ -25907,7 +25671,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K714" t="inlineStr">
         <is>
@@ -25946,7 +25710,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K715" t="inlineStr">
         <is>
@@ -25985,7 +25749,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K716" t="inlineStr">
         <is>
@@ -26024,7 +25788,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K717" t="inlineStr">
         <is>
@@ -26063,7 +25827,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K718" t="inlineStr">
         <is>
@@ -26102,7 +25866,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K719" t="inlineStr">
         <is>
@@ -26141,7 +25905,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K720" t="inlineStr">
         <is>
@@ -26180,7 +25944,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K721" t="inlineStr">
         <is>
@@ -26219,7 +25983,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K722" t="inlineStr">
         <is>
@@ -26258,7 +26022,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K723" t="inlineStr">
         <is>
@@ -26297,7 +26061,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K724" t="inlineStr">
         <is>
@@ -26336,7 +26100,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K725" t="inlineStr">
         <is>
@@ -26375,7 +26139,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K726" t="inlineStr">
         <is>
@@ -26414,7 +26178,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K727" t="inlineStr">
         <is>
@@ -26453,7 +26217,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K728" t="inlineStr">
         <is>
@@ -26492,7 +26256,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K729" t="inlineStr">
         <is>
@@ -26531,7 +26295,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K730" t="inlineStr">
         <is>
@@ -26570,7 +26334,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K731" t="inlineStr">
         <is>
@@ -26609,7 +26373,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K732" t="inlineStr">
         <is>
@@ -26648,7 +26412,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K733" t="inlineStr">
         <is>
@@ -26687,7 +26451,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K734" t="inlineStr">
         <is>
@@ -26726,7 +26490,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K735" t="inlineStr">
         <is>
@@ -26765,7 +26529,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K736" t="inlineStr">
         <is>
@@ -26804,7 +26568,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K737" t="inlineStr">
         <is>
@@ -26843,7 +26607,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K738" t="inlineStr">
         <is>
@@ -26882,7 +26646,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K739" t="inlineStr">
         <is>
@@ -26921,7 +26685,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K740" t="inlineStr">
         <is>
@@ -26960,7 +26724,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K741" t="inlineStr">
         <is>
@@ -26999,7 +26763,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K742" t="inlineStr">
         <is>
@@ -27038,7 +26802,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K743" t="inlineStr">
         <is>
@@ -27077,7 +26841,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K744" t="inlineStr">
         <is>
@@ -27116,7 +26880,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K745" t="inlineStr">
         <is>
@@ -27155,7 +26919,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K746" t="inlineStr">
         <is>
@@ -27194,7 +26958,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K747" t="inlineStr">
         <is>
@@ -27233,7 +26997,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K748" t="inlineStr">
         <is>
@@ -27272,7 +27036,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K749" t="inlineStr">
         <is>
@@ -27311,7 +27075,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K750" t="inlineStr">
         <is>
@@ -27350,7 +27114,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K751" t="inlineStr">
         <is>
@@ -27389,7 +27153,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K752" t="inlineStr">
         <is>
@@ -27428,7 +27192,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K753" t="inlineStr">
         <is>
@@ -27467,7 +27231,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K754" t="inlineStr">
         <is>
@@ -27506,7 +27270,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K755" t="inlineStr">
         <is>
@@ -27545,7 +27309,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K756" t="inlineStr">
         <is>
@@ -27584,7 +27348,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K757" t="inlineStr">
         <is>
@@ -27623,7 +27387,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K758" t="inlineStr">
         <is>
@@ -27662,7 +27426,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K759" t="inlineStr">
         <is>
@@ -27701,7 +27465,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K760" t="inlineStr">
         <is>
@@ -27740,7 +27504,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K761" t="inlineStr">
         <is>
@@ -27779,7 +27543,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K762" t="inlineStr">
         <is>
@@ -27818,7 +27582,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K763" t="inlineStr">
         <is>
@@ -27857,7 +27621,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K764" t="inlineStr">
         <is>
@@ -27896,7 +27660,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K765" t="inlineStr">
         <is>
@@ -27935,7 +27699,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K766" t="inlineStr">
         <is>
@@ -27974,7 +27738,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K767" t="inlineStr">
         <is>
@@ -28013,7 +27777,7 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K768" t="inlineStr">
         <is>
@@ -28052,7 +27816,7 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K769" t="inlineStr">
         <is>
@@ -28091,7 +27855,7 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K770" t="inlineStr">
         <is>
@@ -28130,7 +27894,7 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K771" t="inlineStr">
         <is>
@@ -28169,7 +27933,7 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K772" t="inlineStr">
         <is>
@@ -28208,7 +27972,7 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K773" t="inlineStr">
         <is>
@@ -28247,7 +28011,7 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K774" t="inlineStr">
         <is>
@@ -28286,7 +28050,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K775" t="inlineStr">
         <is>
@@ -28325,7 +28089,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K776" t="inlineStr">
         <is>
@@ -28364,7 +28128,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K777" t="inlineStr">
         <is>
@@ -28403,7 +28167,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K778" t="inlineStr">
         <is>
@@ -28442,7 +28206,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K779" t="inlineStr">
         <is>
@@ -28481,7 +28245,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K780" t="inlineStr">
         <is>
@@ -28520,7 +28284,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K781" t="inlineStr">
         <is>
@@ -28559,7 +28323,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K782" t="inlineStr">
         <is>
@@ -28598,7 +28362,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K783" t="inlineStr">
         <is>
@@ -28637,7 +28401,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K784" t="inlineStr">
         <is>
@@ -28676,7 +28440,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K785" t="inlineStr">
         <is>
@@ -28715,7 +28479,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K786" t="inlineStr">
         <is>
@@ -28754,7 +28518,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K787" t="inlineStr">
         <is>
@@ -28793,7 +28557,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K788" t="inlineStr">
         <is>
@@ -28832,7 +28596,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K789" t="inlineStr">
         <is>
@@ -28871,7 +28635,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="K790" t="inlineStr">
         <is>
@@ -28884,6 +28648,6 @@
       <c r="M790" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest IPX.xlsx
+++ b/BackTest/2020-01-12 BackTest IPX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1015537.19413874</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1015537.19413874</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1015468.43133874</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1015468.43133874</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>981984.6386387397</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>999493.5100387397</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>999538.0081387396</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1001703.80803874</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1000167.01323874</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>999516.0550387396</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1001931.68623874</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>1000401.57573874</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>1000401.57573874</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1000401.57573874</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>1000401.57573874</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>1000401.57573874</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>1000401.57573874</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1000401.57573874</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>1000592.86893874</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>1000592.86893874</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>1000592.86893874</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>1025052.79273874</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>1019955.08683874</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1019955.08683874</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1019955.08683874</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1019955.08683874</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>1020157.40963874</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1020157.40963874</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>1085503.144838739</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>1084852.186638739</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>1084852.186638739</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>1086609.331238739</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>1086283.852138739</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>1086283.852138739</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>1087827.931538739</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>1086037.449638739</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>1086037.449638739</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>1086917.843238739</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>1085736.474738739</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>1085736.474738739</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>1088651.167038739</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>1094730.251638739</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>1094730.251638739</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>1095431.082338739</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>1093912.427738739</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>1093912.427738739</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>1093912.427738739</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>1093912.427738739</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>1093912.427738739</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>1096245.703238739</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>1094684.160538739</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>1096233.011938739</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>1096233.011938739</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>1095333.544538739</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>1095333.544538739</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>1095333.544538739</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>1095333.544538739</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>1095333.544538739</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>1096237.285238739</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>1096237.285238739</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>1097246.631438739</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>1097246.631438739</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>1095727.947538739</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>1095727.947538739</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>1095727.947538739</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>1095727.947538739</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>1095657.687738739</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>1095657.687738739</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>1095657.687738739</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>1095782.212338739</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>1095682.212338739</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>1098682.212338739</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>1098682.212338739</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>1098671.212338739</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>1098671.212338739</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>1094505.313938739</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>1094505.313938739</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>1099051.975038738</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>1099051.975038738</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>1099051.975038738</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>1099051.975038738</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>1100235.077238739</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>1100235.077238739</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>1099909.598138738</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>1100790.895338738</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>1100790.895338738</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>1100790.895338738</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>1100790.895338738</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>1100465.416238738</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>1101689.457938738</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>1101689.457938738</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>1101689.457938738</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>1100713.020638738</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>1100713.020638738</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>1100713.020638738</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>1100713.020638738</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>1101901.302138738</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>1101575.823038738</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>1101575.823038738</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>1103662.612838738</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>1103337.133738738</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>1103337.133738738</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>1103988.091938738</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>1102202.600238738</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>1103098.226538738</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>1103098.226538738</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>1103098.226538738</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>1103098.226538738</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>1137885.570138738</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>1132914.987438738</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>1132914.987438738</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>1133771.555738738</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>1121534.496938738</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>1155332.849338738</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>1154681.891238738</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>1163034.766838738</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>1163034.766838738</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>1163034.766838738</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>1163034.766838738</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>1163034.766838738</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>1163190.300438738</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>1138739.904438738</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>1138739.904438738</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>1138739.904438738</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>1125077.145638738</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>1128628.626738738</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>1128628.626738738</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>1129723.616138738</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>1129723.616138738</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>1127956.309938738</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>1127956.309938738</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>1127956.309938738</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>1127956.309938738</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>1127956.309938738</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>1127956.309938738</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>1129168.406038738</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>1129168.406038738</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>1128842.927038738</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>1129704.775038738</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>1129704.775038738</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>1129704.775038738</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>1128972.250638738</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>1131061.908438738</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>1131061.908438738</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>1131061.908438738</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>1131061.908438738</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>1130736.429438738</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>1132283.015938738</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>1132283.015938738</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>1132283.015938738</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>1131306.578838738</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>1131306.578838738</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>1131306.578838738</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>1131306.578838738</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>1131306.578838738</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>1131306.578838738</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>1132191.634738738</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>1131215.197638738</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>1131215.197638738</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>1131215.197638738</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>1131215.197638738</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>1131215.197638738</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>1132428.705938738</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>1132428.705938738</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>1142138.705938738</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>1141813.226938738</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>1158951.368638738</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>1152048.543238738</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>1152944.487838738</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>1149575.355238738</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>1149575.355238738</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>1150573.743538738</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>1151600.180638738</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>1150411.667038738</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>1150411.667038738</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>1150411.667038738</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>1150861.667038738</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>1149361.667038738</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>1138087.795838738</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>1138087.795838738</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>1138087.795838738</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>1115741.657538738</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>1094709.036138738</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>1104562.161838738</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>1096725.490738738</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>1095150.832838738</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>1093296.727238738</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -15763,10 +15763,14 @@
         <v>839490.7482387383</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J466" t="n">
+        <v>43.03</v>
+      </c>
       <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
@@ -15799,8 +15803,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15829,11 +15839,19 @@
         <v>839490.7482387383</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J468" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15940,11 +15958,9 @@
         <v>843072.7316387383</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
-      </c>
-      <c r="I471" t="n">
-        <v>43.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
         <v>43.03</v>
       </c>
@@ -15981,14 +15997,10 @@
         <v>843072.7316387383</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="J472" t="n">
-        <v>43.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
@@ -16023,9 +16035,7 @@
       <c r="I473" t="n">
         <v>43.2</v>
       </c>
-      <c r="J473" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -16064,9 +16074,7 @@
       <c r="I474" t="n">
         <v>43.2</v>
       </c>
-      <c r="J474" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16105,9 +16113,7 @@
       <c r="I475" t="n">
         <v>43.2</v>
       </c>
-      <c r="J475" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16146,9 +16152,7 @@
       <c r="I476" t="n">
         <v>43.2</v>
       </c>
-      <c r="J476" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16187,9 +16191,7 @@
       <c r="I477" t="n">
         <v>43.09</v>
       </c>
-      <c r="J477" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16228,9 +16230,7 @@
       <c r="I478" t="n">
         <v>43.09</v>
       </c>
-      <c r="J478" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16269,9 +16269,7 @@
       <c r="I479" t="n">
         <v>43.2</v>
       </c>
-      <c r="J479" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16310,9 +16308,7 @@
       <c r="I480" t="n">
         <v>43.2</v>
       </c>
-      <c r="J480" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16351,9 +16347,7 @@
       <c r="I481" t="n">
         <v>43.2</v>
       </c>
-      <c r="J481" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16392,9 +16386,7 @@
       <c r="I482" t="n">
         <v>43.2</v>
       </c>
-      <c r="J482" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16433,9 +16425,7 @@
       <c r="I483" t="n">
         <v>43.09</v>
       </c>
-      <c r="J483" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16474,9 +16464,7 @@
       <c r="I484" t="n">
         <v>43.2</v>
       </c>
-      <c r="J484" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16515,9 +16503,7 @@
       <c r="I485" t="n">
         <v>43.2</v>
       </c>
-      <c r="J485" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16556,9 +16542,7 @@
       <c r="I486" t="n">
         <v>43.3</v>
       </c>
-      <c r="J486" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16597,9 +16581,7 @@
       <c r="I487" t="n">
         <v>43.3</v>
       </c>
-      <c r="J487" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16638,9 +16620,7 @@
       <c r="I488" t="n">
         <v>43.3</v>
       </c>
-      <c r="J488" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16679,9 +16659,7 @@
       <c r="I489" t="n">
         <v>43.5</v>
       </c>
-      <c r="J489" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16720,9 +16698,7 @@
       <c r="I490" t="n">
         <v>43.3</v>
       </c>
-      <c r="J490" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16761,9 +16737,7 @@
       <c r="I491" t="n">
         <v>43.3</v>
       </c>
-      <c r="J491" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16802,9 +16776,7 @@
       <c r="I492" t="n">
         <v>43.3</v>
       </c>
-      <c r="J492" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16843,9 +16815,7 @@
       <c r="I493" t="n">
         <v>43.3</v>
       </c>
-      <c r="J493" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16884,9 +16854,7 @@
       <c r="I494" t="n">
         <v>43.3</v>
       </c>
-      <c r="J494" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16925,9 +16893,7 @@
       <c r="I495" t="n">
         <v>43.5</v>
       </c>
-      <c r="J495" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16961,14 +16927,10 @@
         <v>830689.4320387383</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
-      </c>
-      <c r="I496" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="J496" t="n">
-        <v>43.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17007,9 +16969,7 @@
       <c r="I497" t="n">
         <v>43.31</v>
       </c>
-      <c r="J497" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17048,9 +17008,7 @@
       <c r="I498" t="n">
         <v>43.31</v>
       </c>
-      <c r="J498" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17089,9 +17047,7 @@
       <c r="I499" t="n">
         <v>43.31</v>
       </c>
-      <c r="J499" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17130,9 +17086,7 @@
       <c r="I500" t="n">
         <v>43.31</v>
       </c>
-      <c r="J500" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17171,9 +17125,7 @@
       <c r="I501" t="n">
         <v>43.31</v>
       </c>
-      <c r="J501" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17212,9 +17164,7 @@
       <c r="I502" t="n">
         <v>43.2</v>
       </c>
-      <c r="J502" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17253,9 +17203,7 @@
       <c r="I503" t="n">
         <v>43.2</v>
       </c>
-      <c r="J503" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17294,9 +17242,7 @@
       <c r="I504" t="n">
         <v>43.2</v>
       </c>
-      <c r="J504" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17335,9 +17281,7 @@
       <c r="I505" t="n">
         <v>43.3</v>
       </c>
-      <c r="J505" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17376,9 +17320,7 @@
       <c r="I506" t="n">
         <v>43.3</v>
       </c>
-      <c r="J506" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17417,9 +17359,7 @@
       <c r="I507" t="n">
         <v>43.3</v>
       </c>
-      <c r="J507" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17458,9 +17398,7 @@
       <c r="I508" t="n">
         <v>43.3</v>
       </c>
-      <c r="J508" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17499,9 +17437,7 @@
       <c r="I509" t="n">
         <v>43.2</v>
       </c>
-      <c r="J509" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17540,9 +17476,7 @@
       <c r="I510" t="n">
         <v>43.3</v>
       </c>
-      <c r="J510" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17581,9 +17515,7 @@
       <c r="I511" t="n">
         <v>43.2</v>
       </c>
-      <c r="J511" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17622,9 +17554,7 @@
       <c r="I512" t="n">
         <v>43.3</v>
       </c>
-      <c r="J512" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17663,9 +17593,7 @@
       <c r="I513" t="n">
         <v>43.2</v>
       </c>
-      <c r="J513" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17704,9 +17632,7 @@
       <c r="I514" t="n">
         <v>43.3</v>
       </c>
-      <c r="J514" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17745,9 +17671,7 @@
       <c r="I515" t="n">
         <v>43.3</v>
       </c>
-      <c r="J515" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17786,9 +17710,7 @@
       <c r="I516" t="n">
         <v>43.3</v>
       </c>
-      <c r="J516" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17827,9 +17749,7 @@
       <c r="I517" t="n">
         <v>43.2</v>
       </c>
-      <c r="J517" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17868,9 +17788,7 @@
       <c r="I518" t="n">
         <v>43.2</v>
       </c>
-      <c r="J518" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17909,9 +17827,7 @@
       <c r="I519" t="n">
         <v>43.4</v>
       </c>
-      <c r="J519" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17950,9 +17866,7 @@
       <c r="I520" t="n">
         <v>43.4</v>
       </c>
-      <c r="J520" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17991,9 +17905,7 @@
       <c r="I521" t="n">
         <v>43.5</v>
       </c>
-      <c r="J521" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18032,9 +17944,7 @@
       <c r="I522" t="n">
         <v>43.2</v>
       </c>
-      <c r="J522" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18073,9 +17983,7 @@
       <c r="I523" t="n">
         <v>43.4</v>
       </c>
-      <c r="J523" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18109,14 +18017,10 @@
         <v>794414.7849387383</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
-      </c>
-      <c r="I524" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="J524" t="n">
-        <v>43.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18155,9 +18059,7 @@
       <c r="I525" t="n">
         <v>43.3</v>
       </c>
-      <c r="J525" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18196,9 +18098,7 @@
       <c r="I526" t="n">
         <v>43.4</v>
       </c>
-      <c r="J526" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18237,9 +18137,7 @@
       <c r="I527" t="n">
         <v>43.4</v>
       </c>
-      <c r="J527" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18273,14 +18171,10 @@
         <v>794053.7500387384</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
-      </c>
-      <c r="I528" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="J528" t="n">
-        <v>43.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18319,9 +18213,7 @@
       <c r="I529" t="n">
         <v>43.3</v>
       </c>
-      <c r="J529" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18360,9 +18252,7 @@
       <c r="I530" t="n">
         <v>43.3</v>
       </c>
-      <c r="J530" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18401,9 +18291,7 @@
       <c r="I531" t="n">
         <v>43.3</v>
       </c>
-      <c r="J531" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18442,9 +18330,7 @@
       <c r="I532" t="n">
         <v>43.3</v>
       </c>
-      <c r="J532" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18483,9 +18369,7 @@
       <c r="I533" t="n">
         <v>43.3</v>
       </c>
-      <c r="J533" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18524,9 +18408,7 @@
       <c r="I534" t="n">
         <v>43.5</v>
       </c>
-      <c r="J534" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18565,9 +18447,7 @@
       <c r="I535" t="n">
         <v>43.3</v>
       </c>
-      <c r="J535" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18606,9 +18486,7 @@
       <c r="I536" t="n">
         <v>43.3</v>
       </c>
-      <c r="J536" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18647,9 +18525,7 @@
       <c r="I537" t="n">
         <v>43.3</v>
       </c>
-      <c r="J537" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18688,9 +18564,7 @@
       <c r="I538" t="n">
         <v>43.3</v>
       </c>
-      <c r="J538" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18729,9 +18603,7 @@
       <c r="I539" t="n">
         <v>43.3</v>
       </c>
-      <c r="J539" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18770,9 +18642,7 @@
       <c r="I540" t="n">
         <v>43.3</v>
       </c>
-      <c r="J540" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18811,9 +18681,7 @@
       <c r="I541" t="n">
         <v>43.3</v>
       </c>
-      <c r="J541" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18852,9 +18720,7 @@
       <c r="I542" t="n">
         <v>43.3</v>
       </c>
-      <c r="J542" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18893,9 +18759,7 @@
       <c r="I543" t="n">
         <v>43.3</v>
       </c>
-      <c r="J543" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18934,9 +18798,7 @@
       <c r="I544" t="n">
         <v>43.3</v>
       </c>
-      <c r="J544" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18975,9 +18837,7 @@
       <c r="I545" t="n">
         <v>43.3</v>
       </c>
-      <c r="J545" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19016,9 +18876,7 @@
       <c r="I546" t="n">
         <v>43.3</v>
       </c>
-      <c r="J546" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19057,9 +18915,7 @@
       <c r="I547" t="n">
         <v>43.3</v>
       </c>
-      <c r="J547" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19098,9 +18954,7 @@
       <c r="I548" t="n">
         <v>43.3</v>
       </c>
-      <c r="J548" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19139,9 +18993,7 @@
       <c r="I549" t="n">
         <v>43.3</v>
       </c>
-      <c r="J549" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19180,9 +19032,7 @@
       <c r="I550" t="n">
         <v>43.3</v>
       </c>
-      <c r="J550" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19221,9 +19071,7 @@
       <c r="I551" t="n">
         <v>43.3</v>
       </c>
-      <c r="J551" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19262,9 +19110,7 @@
       <c r="I552" t="n">
         <v>43.3</v>
       </c>
-      <c r="J552" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19303,9 +19149,7 @@
       <c r="I553" t="n">
         <v>42.92</v>
       </c>
-      <c r="J553" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19344,9 +19188,7 @@
       <c r="I554" t="n">
         <v>42.92</v>
       </c>
-      <c r="J554" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19385,9 +19227,7 @@
       <c r="I555" t="n">
         <v>43.2</v>
       </c>
-      <c r="J555" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19426,9 +19266,7 @@
       <c r="I556" t="n">
         <v>43.2</v>
       </c>
-      <c r="J556" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19467,9 +19305,7 @@
       <c r="I557" t="n">
         <v>43.1</v>
       </c>
-      <c r="J557" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19508,9 +19344,7 @@
       <c r="I558" t="n">
         <v>43.2</v>
       </c>
-      <c r="J558" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19549,9 +19383,7 @@
       <c r="I559" t="n">
         <v>43.2</v>
       </c>
-      <c r="J559" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19590,9 +19422,7 @@
       <c r="I560" t="n">
         <v>43.2</v>
       </c>
-      <c r="J560" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19631,9 +19461,7 @@
       <c r="I561" t="n">
         <v>43.21</v>
       </c>
-      <c r="J561" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19672,9 +19500,7 @@
       <c r="I562" t="n">
         <v>43.49</v>
       </c>
-      <c r="J562" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19713,9 +19539,7 @@
       <c r="I563" t="n">
         <v>43.3</v>
       </c>
-      <c r="J563" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19754,9 +19578,7 @@
       <c r="I564" t="n">
         <v>43.4</v>
       </c>
-      <c r="J564" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19795,9 +19617,7 @@
       <c r="I565" t="n">
         <v>43.4</v>
       </c>
-      <c r="J565" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19836,9 +19656,7 @@
       <c r="I566" t="n">
         <v>43.3</v>
       </c>
-      <c r="J566" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19877,9 +19695,7 @@
       <c r="I567" t="n">
         <v>43.4</v>
       </c>
-      <c r="J567" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19918,9 +19734,7 @@
       <c r="I568" t="n">
         <v>43.3</v>
       </c>
-      <c r="J568" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19959,9 +19773,7 @@
       <c r="I569" t="n">
         <v>43.3</v>
       </c>
-      <c r="J569" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20000,9 +19812,7 @@
       <c r="I570" t="n">
         <v>43.3</v>
       </c>
-      <c r="J570" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20041,9 +19851,7 @@
       <c r="I571" t="n">
         <v>43.4</v>
       </c>
-      <c r="J571" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20082,9 +19890,7 @@
       <c r="I572" t="n">
         <v>43.4</v>
       </c>
-      <c r="J572" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20123,9 +19929,7 @@
       <c r="I573" t="n">
         <v>43.4</v>
       </c>
-      <c r="J573" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20164,9 +19968,7 @@
       <c r="I574" t="n">
         <v>43.3</v>
       </c>
-      <c r="J574" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20205,9 +20007,7 @@
       <c r="I575" t="n">
         <v>43.4</v>
       </c>
-      <c r="J575" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20246,9 +20046,7 @@
       <c r="I576" t="n">
         <v>43.3</v>
       </c>
-      <c r="J576" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20287,9 +20085,7 @@
       <c r="I577" t="n">
         <v>43.4</v>
       </c>
-      <c r="J577" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20328,9 +20124,7 @@
       <c r="I578" t="n">
         <v>43.4</v>
       </c>
-      <c r="J578" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20369,9 +20163,7 @@
       <c r="I579" t="n">
         <v>43.3</v>
       </c>
-      <c r="J579" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20410,9 +20202,7 @@
       <c r="I580" t="n">
         <v>43.4</v>
       </c>
-      <c r="J580" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20451,9 +20241,7 @@
       <c r="I581" t="n">
         <v>43.4</v>
       </c>
-      <c r="J581" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20492,9 +20280,7 @@
       <c r="I582" t="n">
         <v>43.4</v>
       </c>
-      <c r="J582" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20533,9 +20319,7 @@
       <c r="I583" t="n">
         <v>43.4</v>
       </c>
-      <c r="J583" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20574,9 +20358,7 @@
       <c r="I584" t="n">
         <v>43.4</v>
       </c>
-      <c r="J584" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20615,9 +20397,7 @@
       <c r="I585" t="n">
         <v>43.3</v>
       </c>
-      <c r="J585" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20656,9 +20436,7 @@
       <c r="I586" t="n">
         <v>43.4</v>
       </c>
-      <c r="J586" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20697,9 +20475,7 @@
       <c r="I587" t="n">
         <v>43.4</v>
       </c>
-      <c r="J587" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20738,9 +20514,7 @@
       <c r="I588" t="n">
         <v>43.4</v>
       </c>
-      <c r="J588" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20779,9 +20553,7 @@
       <c r="I589" t="n">
         <v>43.4</v>
       </c>
-      <c r="J589" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20820,9 +20592,7 @@
       <c r="I590" t="n">
         <v>43.4</v>
       </c>
-      <c r="J590" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20861,9 +20631,7 @@
       <c r="I591" t="n">
         <v>43.5</v>
       </c>
-      <c r="J591" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20902,9 +20670,7 @@
       <c r="I592" t="n">
         <v>43.5</v>
       </c>
-      <c r="J592" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20943,9 +20709,7 @@
       <c r="I593" t="n">
         <v>43.7</v>
       </c>
-      <c r="J593" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20979,14 +20743,10 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
-      </c>
-      <c r="I594" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J594" t="n">
-        <v>43.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21020,14 +20780,10 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
-      </c>
-      <c r="I595" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J595" t="n">
-        <v>43.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21061,14 +20817,10 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
-      </c>
-      <c r="I596" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J596" t="n">
-        <v>43.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21105,9 +20857,7 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21144,9 +20894,7 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21180,14 +20928,10 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
-      </c>
-      <c r="I599" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J599" t="n">
-        <v>43.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21224,9 +20968,7 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21263,9 +21005,7 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21302,9 +21042,7 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21341,9 +21079,7 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21380,9 +21116,7 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21419,9 +21153,7 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21458,9 +21190,7 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21497,9 +21227,7 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21536,9 +21264,7 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21572,12 +21298,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21611,12 +21337,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21650,12 +21376,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21689,12 +21415,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21728,12 +21454,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21767,12 +21493,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21806,12 +21532,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21845,12 +21571,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21884,12 +21610,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21923,12 +21649,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21962,12 +21688,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22001,12 +21727,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22040,12 +21766,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22079,12 +21805,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22118,12 +21844,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22157,12 +21883,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22196,12 +21922,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22235,12 +21961,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22274,12 +22000,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22313,12 +22039,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22352,12 +22078,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22391,12 +22117,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22430,12 +22156,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22469,12 +22195,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22508,12 +22234,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22547,12 +22273,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22586,12 +22312,12 @@
         <v>805824.3213387385</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22625,12 +22351,12 @@
         <v>805824.3213387385</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22664,12 +22390,12 @@
         <v>806703.9012387386</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22703,12 +22429,12 @@
         <v>804056.3580387386</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22742,12 +22468,12 @@
         <v>804707.3161387386</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22781,12 +22507,12 @@
         <v>803079.9209387386</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22820,12 +22546,12 @@
         <v>803079.9209387386</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22859,12 +22585,12 @@
         <v>803730.8790387387</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22898,12 +22624,12 @@
         <v>803730.8790387387</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22937,12 +22663,12 @@
         <v>803405.4000387386</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22976,12 +22702,12 @@
         <v>804591.3100387387</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23015,12 +22741,12 @@
         <v>804591.3100387387</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23054,12 +22780,12 @@
         <v>804591.3100387387</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23093,12 +22819,12 @@
         <v>804591.3100387387</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23132,12 +22858,12 @@
         <v>804591.3100387387</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23171,12 +22897,12 @@
         <v>803289.3939387386</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23210,12 +22936,12 @@
         <v>804470.1958387386</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23249,12 +22975,12 @@
         <v>803286.6452387386</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23288,12 +23014,12 @@
         <v>804499.3633387387</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23327,12 +23053,12 @@
         <v>802624.0187387387</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23366,12 +23092,12 @@
         <v>802624.0187387387</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23405,12 +23131,12 @@
         <v>802624.0187387387</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23444,12 +23170,12 @@
         <v>804167.6495387388</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23483,12 +23209,12 @@
         <v>802617.3476387388</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23522,12 +23248,12 @@
         <v>803511.1806387388</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23561,12 +23287,12 @@
         <v>802291.6070387388</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23600,12 +23326,12 @@
         <v>802291.6070387388</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23639,12 +23365,12 @@
         <v>802291.6070387388</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23678,12 +23404,12 @@
         <v>802291.6070387388</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23717,12 +23443,12 @@
         <v>802291.6070387388</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23756,12 +23482,12 @@
         <v>804156.0487387388</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23795,12 +23521,12 @@
         <v>803505.0907387388</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23834,12 +23560,12 @@
         <v>804722.3164387387</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23873,12 +23599,12 @@
         <v>804071.3584387387</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23912,12 +23638,12 @@
         <v>804071.3584387387</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23951,12 +23677,12 @@
         <v>805373.2746387387</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23990,12 +23716,12 @@
         <v>805373.2746387387</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24029,12 +23755,12 @@
         <v>805373.2746387387</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24068,12 +23794,12 @@
         <v>803831.7628387387</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24107,12 +23833,12 @@
         <v>803831.7628387387</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24146,12 +23872,12 @@
         <v>804482.7209387388</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24185,12 +23911,12 @@
         <v>804482.7209387388</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24224,12 +23950,12 @@
         <v>802733.5850387388</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24263,12 +23989,12 @@
         <v>802733.5850387388</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24302,12 +24028,12 @@
         <v>802733.5850387388</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I679" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24341,12 +24067,12 @@
         <v>803608.2477387388</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24383,9 +24109,7 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24422,9 +24146,7 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24461,9 +24183,7 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24500,9 +24220,7 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24539,9 +24257,7 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24578,9 +24294,7 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24617,9 +24331,7 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24656,9 +24368,7 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24692,12 +24402,12 @@
         <v>801725.6091387388</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24734,9 +24444,7 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24773,9 +24481,7 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24812,9 +24518,7 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24848,12 +24552,12 @@
         <v>799955.2628387389</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24887,12 +24591,12 @@
         <v>799955.2628387389</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24926,12 +24630,12 @@
         <v>799955.2628387389</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24965,12 +24669,12 @@
         <v>801708.0836387388</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25004,12 +24708,12 @@
         <v>801708.0836387388</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25046,9 +24750,7 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25082,12 +24784,12 @@
         <v>801382.6046387389</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25121,12 +24823,12 @@
         <v>800192.9719387389</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25163,9 +24865,7 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25202,9 +24902,7 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25241,9 +24939,7 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25277,12 +24973,12 @@
         <v>801933.2472387389</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25319,9 +25015,7 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25355,12 +25049,12 @@
         <v>800393.0977387389</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25394,12 +25088,12 @@
         <v>802133.6285387388</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25433,12 +25127,12 @@
         <v>802133.6285387388</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25472,12 +25166,12 @@
         <v>802133.6285387388</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25511,12 +25205,12 @@
         <v>802133.6285387388</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25553,9 +25247,7 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25589,12 +25281,12 @@
         <v>802111.1795387388</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25628,12 +25320,12 @@
         <v>801215.9443387388</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25667,12 +25359,12 @@
         <v>802843.3395387388</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25706,12 +25398,12 @@
         <v>802517.8605387388</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25745,12 +25437,12 @@
         <v>805144.7727387388</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25784,12 +25476,12 @@
         <v>807400.5285387388</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25826,9 +25518,7 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25862,12 +25552,12 @@
         <v>806199.7080387388</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25901,12 +25591,12 @@
         <v>806199.7080387388</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25943,9 +25633,7 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25979,12 +25667,12 @@
         <v>805303.6834387388</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26021,9 +25709,7 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26060,9 +25746,7 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26099,9 +25783,7 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26138,9 +25820,7 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26174,12 +25854,12 @@
         <v>804238.7449387389</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26213,12 +25893,12 @@
         <v>805098.1298387388</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26252,12 +25932,12 @@
         <v>805098.1298387388</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26291,12 +25971,12 @@
         <v>805098.1298387388</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26330,12 +26010,12 @@
         <v>805098.1298387388</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26369,12 +26049,12 @@
         <v>805098.1298387388</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26408,12 +26088,12 @@
         <v>805098.1298387388</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26450,9 +26130,7 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26489,9 +26167,7 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26528,9 +26204,7 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26567,9 +26241,7 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26606,9 +26278,7 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26642,12 +26312,12 @@
         <v>804543.0340387389</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26681,12 +26351,12 @@
         <v>802676.3942387389</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26720,12 +26390,12 @@
         <v>802676.3942387389</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26759,12 +26429,12 @@
         <v>803978.3104387389</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26798,12 +26468,12 @@
         <v>802430.6123387389</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26837,12 +26507,12 @@
         <v>802430.6123387389</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26876,12 +26546,12 @@
         <v>803644.6091387388</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26915,12 +26585,12 @@
         <v>803644.6091387388</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26954,12 +26624,12 @@
         <v>803644.6091387388</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26993,12 +26663,12 @@
         <v>802135.4385387389</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27032,12 +26702,12 @@
         <v>802135.4385387389</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27071,12 +26741,12 @@
         <v>803886.7879387388</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27113,9 +26783,7 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27152,9 +26820,7 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27191,9 +26857,7 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27230,9 +26894,7 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27266,12 +26928,12 @@
         <v>802986.8022387387</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27308,9 +26970,7 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27344,12 +27004,12 @@
         <v>802959.1409387388</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27383,12 +27043,12 @@
         <v>802959.1409387388</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27425,9 +27085,7 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27464,9 +27122,7 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27503,9 +27159,7 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27539,12 +27193,12 @@
         <v>802069.1228387388</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27578,12 +27232,12 @@
         <v>801743.6438387388</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27617,12 +27271,12 @@
         <v>802625.9272387387</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27656,12 +27310,12 @@
         <v>802625.9272387387</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27698,9 +27352,7 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27734,12 +27386,12 @@
         <v>801763.2073387387</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27773,12 +27425,12 @@
         <v>801763.2073387387</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27812,12 +27464,12 @@
         <v>801763.2073387387</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27851,12 +27503,12 @@
         <v>801763.2073387387</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27890,12 +27542,12 @@
         <v>801763.2073387387</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27929,12 +27581,12 @@
         <v>801763.2073387387</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27968,12 +27620,12 @@
         <v>803505.2068387388</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28007,12 +27659,12 @@
         <v>802622.1200387387</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28046,12 +27698,12 @@
         <v>808283.1464387387</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28085,12 +27737,12 @@
         <v>808283.1464387387</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
-      <c r="J776" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28127,9 +27779,7 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28166,9 +27816,7 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28205,9 +27853,7 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28244,9 +27890,7 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28280,12 +27924,12 @@
         <v>808989.5820387388</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28319,12 +27963,12 @@
         <v>808989.5820387388</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28361,9 +28005,7 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28400,9 +28042,7 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28436,12 +28076,12 @@
         <v>808330.6546387387</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28475,12 +28115,12 @@
         <v>808330.6546387387</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28514,12 +28154,12 @@
         <v>808330.6546387387</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28556,9 +28196,7 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28592,12 +28230,12 @@
         <v>809632.5708387387</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28631,12 +28269,12 @@
         <v>808981.6127387387</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>43.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28648,6 +28286,6 @@
       <c r="M790" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest IPX.xlsx
+++ b/BackTest/2020-01-12 BackTest IPX.xlsx
@@ -616,7 +616,7 @@
         <v>999493.5100387397</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>999493.5100387397</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>999538.0081387396</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1001703.80803874</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1000167.01323874</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>999516.0550387396</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>1067286.093138739</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>1082805.26023874</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>1082648.22603874</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>1082648.22603874</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>1082648.22603874</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>1082648.22603874</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>1082648.22603874</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>1082612.534738739</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>1084501.66693874</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>1080999.626838739</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>1081859.830538739</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>1083089.026138739</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>1082763.547038739</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>1082763.547038739</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>1083414.505238739</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>1083414.505238739</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>1083414.505238739</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>1082210.519938739</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1083069.490138739</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>1083069.490138739</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>1080667.212838739</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>1080667.212838739</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>1080667.212838739</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>1080667.212838739</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>1082851.249438739</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>1082514.770338739</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>1084282.438138739</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>1084282.438138739</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>1087549.172838739</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>1085503.144838739</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>1085503.144838739</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>1085503.144838739</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>1084852.186638739</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>1084852.186638739</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>1086609.331238739</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>1086283.852138739</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>1086283.852138739</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>1087827.931538739</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>1086037.449638739</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>1086037.449638739</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>1086917.843238739</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>1085736.474738739</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>1085736.474738739</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>1088651.167038739</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>1094730.251638739</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>1094730.251638739</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>1095431.082338739</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>1093912.427738739</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>1093912.427738739</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>1093912.427738739</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>1093912.427738739</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>1093912.427738739</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>1096245.703238739</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>1094684.160538739</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>1096233.011938739</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>1096233.011938739</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>1095333.544538739</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>1095333.544538739</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>1095333.544538739</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>1095333.544538739</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>1095333.544538739</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>1096237.285238739</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>1096237.285238739</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>1097246.631438739</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>1097246.631438739</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>1095727.947538739</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>1095727.947538739</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>1095727.947538739</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>1095727.947538739</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>1095657.687738739</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>1095657.687738739</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>1095657.687738739</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>1095782.212338739</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>1095682.212338739</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>1098682.212338739</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>1098682.212338739</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>1098671.212338739</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>1098671.212338739</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>1094505.313938739</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>1094505.313938739</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>1099051.975038738</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>1099051.975038738</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>1099051.975038738</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>1099051.975038738</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>1100235.077238739</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>1100235.077238739</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>1099909.598138738</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>1100790.895338738</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>1100790.895338738</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>1100790.895338738</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>1100790.895338738</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>1100465.416238738</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>1101689.457938738</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>1101689.457938738</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>1101689.457938738</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>1100713.020638738</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>1100713.020638738</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>1100713.020638738</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>1100713.020638738</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>1101901.302138738</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>1101575.823038738</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>1101575.823038738</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>1103662.612838738</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>1103337.133738738</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>1103337.133738738</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>1103988.091938738</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>1102202.600238738</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>1103098.226538738</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>1103098.226538738</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>1103098.226538738</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>1103098.226538738</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>1141255.493138738</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>1137885.570138738</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>1138763.744738738</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>1132914.987438738</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>1132914.987438738</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>1133771.555738738</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>1121534.496938738</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>1155332.849338738</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>1154681.891238738</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>1163034.766838738</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>1163034.766838738</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>1163034.766838738</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>1163034.766838738</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>1163034.766838738</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>1163190.300438738</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>1138739.904438738</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>1138739.904438738</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>1138739.904438738</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>1139308.145638738</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>1125077.145638738</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>1128628.626738738</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>1128628.626738738</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>1129723.616138738</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>1129723.616138738</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>1127956.309938738</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>1127956.309938738</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>1127956.309938738</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>1127956.309938738</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>1127956.309938738</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>1127956.309938738</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>1129168.406038738</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>1129168.406038738</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>1128842.927038738</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>1129704.775038738</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>1129704.775038738</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>1129704.775038738</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>1128972.250638738</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>1131061.908438738</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>1131061.908438738</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>1131061.908438738</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>1131061.908438738</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>1130736.429438738</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>1132283.015938738</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>1132283.015938738</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>1131306.578838738</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>1131306.578838738</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>1131306.578838738</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>1131306.578838738</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>1131306.578838738</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>1132191.634738738</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>1131215.197638738</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>1131215.197638738</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>1131215.197638738</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>1131215.197638738</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>1132428.705938738</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>1132428.705938738</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>1142138.705938738</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>1141813.226938738</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>1158951.368638738</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>1152048.543238738</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>1152944.487838738</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>1149575.355238738</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>1149575.355238738</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>1150573.743538738</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>1151600.180638738</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>1150411.667038738</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>1150411.667038738</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>1150411.667038738</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>1150861.667038738</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>1149361.667038738</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>1138087.795838738</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>1138087.795838738</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>1138087.795838738</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>1115741.657538738</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -15763,14 +15763,10 @@
         <v>839490.7482387383</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>43.03</v>
-      </c>
-      <c r="J466" t="n">
-        <v>43.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
@@ -15803,14 +15799,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>43.03</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15839,19 +15829,11 @@
         <v>839490.7482387383</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
-      </c>
-      <c r="I468" t="n">
-        <v>43.03</v>
-      </c>
-      <c r="J468" t="n">
-        <v>43.03</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15880,14 +15862,10 @@
         <v>840690.7482387383</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
-      </c>
-      <c r="I469" t="n">
-        <v>43.03</v>
-      </c>
-      <c r="J469" t="n">
-        <v>43.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
@@ -15917,19 +15895,11 @@
         <v>843072.7316387383</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
-        <v>43.04</v>
-      </c>
-      <c r="J470" t="n">
-        <v>43.03</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15961,14 +15931,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>43.03</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16030,17 +15994,11 @@
         <v>843072.7316387383</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>43.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16069,17 +16027,11 @@
         <v>843072.7316387383</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>43.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16108,17 +16060,11 @@
         <v>843072.7316387383</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>43.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16147,17 +16093,11 @@
         <v>843054.9368387383</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>43.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16186,17 +16126,11 @@
         <v>843054.9368387383</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>43.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16225,17 +16159,11 @@
         <v>843120.9368387383</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>43.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16264,17 +16192,11 @@
         <v>843120.9368387383</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
-      </c>
-      <c r="I479" t="n">
-        <v>43.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16303,17 +16225,11 @@
         <v>843120.9368387383</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>43.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16347,12 +16263,10 @@
       <c r="I481" t="n">
         <v>43.2</v>
       </c>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16386,10 +16300,12 @@
       <c r="I482" t="n">
         <v>43.2</v>
       </c>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>43.2</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L482" t="n">
@@ -16425,10 +16341,12 @@
       <c r="I483" t="n">
         <v>43.09</v>
       </c>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>43.2</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L483" t="n">
@@ -16464,12 +16382,10 @@
       <c r="I484" t="n">
         <v>43.2</v>
       </c>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16503,10 +16419,12 @@
       <c r="I485" t="n">
         <v>43.2</v>
       </c>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>43.2</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L485" t="n">
@@ -16542,10 +16460,12 @@
       <c r="I486" t="n">
         <v>43.3</v>
       </c>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>43.2</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L486" t="n">
@@ -16581,12 +16501,10 @@
       <c r="I487" t="n">
         <v>43.3</v>
       </c>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16620,10 +16538,12 @@
       <c r="I488" t="n">
         <v>43.3</v>
       </c>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>43.3</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L488" t="n">
@@ -16659,10 +16579,12 @@
       <c r="I489" t="n">
         <v>43.5</v>
       </c>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>43.3</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L489" t="n">
@@ -16698,12 +16620,10 @@
       <c r="I490" t="n">
         <v>43.3</v>
       </c>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16737,10 +16657,12 @@
       <c r="I491" t="n">
         <v>43.3</v>
       </c>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>43.3</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L491" t="n">
@@ -16776,10 +16698,12 @@
       <c r="I492" t="n">
         <v>43.3</v>
       </c>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>43.3</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L492" t="n">
@@ -16815,12 +16739,10 @@
       <c r="I493" t="n">
         <v>43.3</v>
       </c>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16854,10 +16776,12 @@
       <c r="I494" t="n">
         <v>43.3</v>
       </c>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>43.3</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L494" t="n">
@@ -16888,15 +16812,15 @@
         <v>835096.2977387382</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
-      </c>
-      <c r="I495" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="J495" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>43.3</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L495" t="n">
@@ -16927,15 +16851,15 @@
         <v>830689.4320387383</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="J496" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16969,10 +16893,12 @@
       <c r="I497" t="n">
         <v>43.31</v>
       </c>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>43.5</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L497" t="n">
@@ -17008,10 +16934,12 @@
       <c r="I498" t="n">
         <v>43.31</v>
       </c>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>43.5</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L498" t="n">
@@ -17047,12 +16975,10 @@
       <c r="I499" t="n">
         <v>43.31</v>
       </c>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="n">
+        <v>43.31</v>
+      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17086,10 +17012,12 @@
       <c r="I500" t="n">
         <v>43.31</v>
       </c>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L500" t="n">
@@ -17125,10 +17053,12 @@
       <c r="I501" t="n">
         <v>43.31</v>
       </c>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L501" t="n">
@@ -17164,7 +17094,9 @@
       <c r="I502" t="n">
         <v>43.2</v>
       </c>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17203,7 +17135,9 @@
       <c r="I503" t="n">
         <v>43.2</v>
       </c>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17242,7 +17176,9 @@
       <c r="I504" t="n">
         <v>43.2</v>
       </c>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17281,7 +17217,9 @@
       <c r="I505" t="n">
         <v>43.3</v>
       </c>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17320,7 +17258,9 @@
       <c r="I506" t="n">
         <v>43.3</v>
       </c>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17359,7 +17299,9 @@
       <c r="I507" t="n">
         <v>43.3</v>
       </c>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17398,7 +17340,9 @@
       <c r="I508" t="n">
         <v>43.3</v>
       </c>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17437,7 +17381,9 @@
       <c r="I509" t="n">
         <v>43.2</v>
       </c>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17476,7 +17422,9 @@
       <c r="I510" t="n">
         <v>43.3</v>
       </c>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17515,7 +17463,9 @@
       <c r="I511" t="n">
         <v>43.2</v>
       </c>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17554,7 +17504,9 @@
       <c r="I512" t="n">
         <v>43.3</v>
       </c>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17593,7 +17545,9 @@
       <c r="I513" t="n">
         <v>43.2</v>
       </c>
-      <c r="J513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17632,7 +17586,9 @@
       <c r="I514" t="n">
         <v>43.3</v>
       </c>
-      <c r="J514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17671,7 +17627,9 @@
       <c r="I515" t="n">
         <v>43.3</v>
       </c>
-      <c r="J515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17710,7 +17668,9 @@
       <c r="I516" t="n">
         <v>43.3</v>
       </c>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17749,7 +17709,9 @@
       <c r="I517" t="n">
         <v>43.2</v>
       </c>
-      <c r="J517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17788,7 +17750,9 @@
       <c r="I518" t="n">
         <v>43.2</v>
       </c>
-      <c r="J518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17827,7 +17791,9 @@
       <c r="I519" t="n">
         <v>43.4</v>
       </c>
-      <c r="J519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17866,7 +17832,9 @@
       <c r="I520" t="n">
         <v>43.4</v>
       </c>
-      <c r="J520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17905,7 +17873,9 @@
       <c r="I521" t="n">
         <v>43.5</v>
       </c>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17944,7 +17914,9 @@
       <c r="I522" t="n">
         <v>43.2</v>
       </c>
-      <c r="J522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17983,7 +17955,9 @@
       <c r="I523" t="n">
         <v>43.4</v>
       </c>
-      <c r="J523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18017,10 +17991,14 @@
         <v>794414.7849387383</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J524" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18059,7 +18037,9 @@
       <c r="I525" t="n">
         <v>43.3</v>
       </c>
-      <c r="J525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18098,7 +18078,9 @@
       <c r="I526" t="n">
         <v>43.4</v>
       </c>
-      <c r="J526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18137,7 +18119,9 @@
       <c r="I527" t="n">
         <v>43.4</v>
       </c>
-      <c r="J527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18171,10 +18155,14 @@
         <v>794053.7500387384</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J528" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18213,7 +18201,9 @@
       <c r="I529" t="n">
         <v>43.3</v>
       </c>
-      <c r="J529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18252,7 +18242,9 @@
       <c r="I530" t="n">
         <v>43.3</v>
       </c>
-      <c r="J530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18291,7 +18283,9 @@
       <c r="I531" t="n">
         <v>43.3</v>
       </c>
-      <c r="J531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18330,7 +18324,9 @@
       <c r="I532" t="n">
         <v>43.3</v>
       </c>
-      <c r="J532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18369,7 +18365,9 @@
       <c r="I533" t="n">
         <v>43.3</v>
       </c>
-      <c r="J533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18408,7 +18406,9 @@
       <c r="I534" t="n">
         <v>43.5</v>
       </c>
-      <c r="J534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18447,7 +18447,9 @@
       <c r="I535" t="n">
         <v>43.3</v>
       </c>
-      <c r="J535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18486,7 +18488,9 @@
       <c r="I536" t="n">
         <v>43.3</v>
       </c>
-      <c r="J536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18525,7 +18529,9 @@
       <c r="I537" t="n">
         <v>43.3</v>
       </c>
-      <c r="J537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18564,7 +18570,9 @@
       <c r="I538" t="n">
         <v>43.3</v>
       </c>
-      <c r="J538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18603,7 +18611,9 @@
       <c r="I539" t="n">
         <v>43.3</v>
       </c>
-      <c r="J539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18642,7 +18652,9 @@
       <c r="I540" t="n">
         <v>43.3</v>
       </c>
-      <c r="J540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18681,7 +18693,9 @@
       <c r="I541" t="n">
         <v>43.3</v>
       </c>
-      <c r="J541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18720,7 +18734,9 @@
       <c r="I542" t="n">
         <v>43.3</v>
       </c>
-      <c r="J542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18759,7 +18775,9 @@
       <c r="I543" t="n">
         <v>43.3</v>
       </c>
-      <c r="J543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18798,7 +18816,9 @@
       <c r="I544" t="n">
         <v>43.3</v>
       </c>
-      <c r="J544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18837,7 +18857,9 @@
       <c r="I545" t="n">
         <v>43.3</v>
       </c>
-      <c r="J545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18876,7 +18898,9 @@
       <c r="I546" t="n">
         <v>43.3</v>
       </c>
-      <c r="J546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18915,7 +18939,9 @@
       <c r="I547" t="n">
         <v>43.3</v>
       </c>
-      <c r="J547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18954,7 +18980,9 @@
       <c r="I548" t="n">
         <v>43.3</v>
       </c>
-      <c r="J548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18993,7 +19021,9 @@
       <c r="I549" t="n">
         <v>43.3</v>
       </c>
-      <c r="J549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19032,7 +19062,9 @@
       <c r="I550" t="n">
         <v>43.3</v>
       </c>
-      <c r="J550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19071,7 +19103,9 @@
       <c r="I551" t="n">
         <v>43.3</v>
       </c>
-      <c r="J551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19110,7 +19144,9 @@
       <c r="I552" t="n">
         <v>43.3</v>
       </c>
-      <c r="J552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19149,7 +19185,9 @@
       <c r="I553" t="n">
         <v>42.92</v>
       </c>
-      <c r="J553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19188,7 +19226,9 @@
       <c r="I554" t="n">
         <v>42.92</v>
       </c>
-      <c r="J554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19227,7 +19267,9 @@
       <c r="I555" t="n">
         <v>43.2</v>
       </c>
-      <c r="J555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19266,7 +19308,9 @@
       <c r="I556" t="n">
         <v>43.2</v>
       </c>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19305,7 +19349,9 @@
       <c r="I557" t="n">
         <v>43.1</v>
       </c>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19344,7 +19390,9 @@
       <c r="I558" t="n">
         <v>43.2</v>
       </c>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19383,7 +19431,9 @@
       <c r="I559" t="n">
         <v>43.2</v>
       </c>
-      <c r="J559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19422,7 +19472,9 @@
       <c r="I560" t="n">
         <v>43.2</v>
       </c>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19461,7 +19513,9 @@
       <c r="I561" t="n">
         <v>43.21</v>
       </c>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19500,7 +19554,9 @@
       <c r="I562" t="n">
         <v>43.49</v>
       </c>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19539,7 +19595,9 @@
       <c r="I563" t="n">
         <v>43.3</v>
       </c>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19578,7 +19636,9 @@
       <c r="I564" t="n">
         <v>43.4</v>
       </c>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19617,7 +19677,9 @@
       <c r="I565" t="n">
         <v>43.4</v>
       </c>
-      <c r="J565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19656,7 +19718,9 @@
       <c r="I566" t="n">
         <v>43.3</v>
       </c>
-      <c r="J566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19695,7 +19759,9 @@
       <c r="I567" t="n">
         <v>43.4</v>
       </c>
-      <c r="J567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19734,7 +19800,9 @@
       <c r="I568" t="n">
         <v>43.3</v>
       </c>
-      <c r="J568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19773,7 +19841,9 @@
       <c r="I569" t="n">
         <v>43.3</v>
       </c>
-      <c r="J569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19812,7 +19882,9 @@
       <c r="I570" t="n">
         <v>43.3</v>
       </c>
-      <c r="J570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19851,7 +19923,9 @@
       <c r="I571" t="n">
         <v>43.4</v>
       </c>
-      <c r="J571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19890,7 +19964,9 @@
       <c r="I572" t="n">
         <v>43.4</v>
       </c>
-      <c r="J572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19929,7 +20005,9 @@
       <c r="I573" t="n">
         <v>43.4</v>
       </c>
-      <c r="J573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19968,7 +20046,9 @@
       <c r="I574" t="n">
         <v>43.3</v>
       </c>
-      <c r="J574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20007,7 +20087,9 @@
       <c r="I575" t="n">
         <v>43.4</v>
       </c>
-      <c r="J575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20046,7 +20128,9 @@
       <c r="I576" t="n">
         <v>43.3</v>
       </c>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20085,7 +20169,9 @@
       <c r="I577" t="n">
         <v>43.4</v>
       </c>
-      <c r="J577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20124,7 +20210,9 @@
       <c r="I578" t="n">
         <v>43.4</v>
       </c>
-      <c r="J578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20163,7 +20251,9 @@
       <c r="I579" t="n">
         <v>43.3</v>
       </c>
-      <c r="J579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20202,7 +20292,9 @@
       <c r="I580" t="n">
         <v>43.4</v>
       </c>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20241,7 +20333,9 @@
       <c r="I581" t="n">
         <v>43.4</v>
       </c>
-      <c r="J581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20280,7 +20374,9 @@
       <c r="I582" t="n">
         <v>43.4</v>
       </c>
-      <c r="J582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20319,7 +20415,9 @@
       <c r="I583" t="n">
         <v>43.4</v>
       </c>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20358,7 +20456,9 @@
       <c r="I584" t="n">
         <v>43.4</v>
       </c>
-      <c r="J584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20397,7 +20497,9 @@
       <c r="I585" t="n">
         <v>43.3</v>
       </c>
-      <c r="J585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20436,7 +20538,9 @@
       <c r="I586" t="n">
         <v>43.4</v>
       </c>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20475,7 +20579,9 @@
       <c r="I587" t="n">
         <v>43.4</v>
       </c>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20514,7 +20620,9 @@
       <c r="I588" t="n">
         <v>43.4</v>
       </c>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20553,7 +20661,9 @@
       <c r="I589" t="n">
         <v>43.4</v>
       </c>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20592,7 +20702,9 @@
       <c r="I590" t="n">
         <v>43.4</v>
       </c>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20631,7 +20743,9 @@
       <c r="I591" t="n">
         <v>43.5</v>
       </c>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20670,7 +20784,9 @@
       <c r="I592" t="n">
         <v>43.5</v>
       </c>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20709,7 +20825,9 @@
       <c r="I593" t="n">
         <v>43.7</v>
       </c>
-      <c r="J593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20743,10 +20861,14 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J594" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20780,10 +20902,14 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J595" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20820,7 +20946,9 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20857,7 +20985,9 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20894,7 +21024,9 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20931,7 +21063,9 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20968,7 +21102,9 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21005,7 +21141,9 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21042,7 +21180,9 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21079,7 +21219,9 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21116,7 +21258,9 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21153,7 +21297,9 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21190,7 +21336,9 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21227,7 +21375,9 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21264,7 +21414,9 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21298,12 +21450,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
-      </c>
-      <c r="I609" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J609" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21337,12 +21489,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
-      </c>
-      <c r="I610" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J610" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21376,12 +21528,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
-      </c>
-      <c r="I611" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J611" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21415,12 +21567,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
-      </c>
-      <c r="I612" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J612" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21454,12 +21606,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
-      </c>
-      <c r="I613" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J613" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21493,12 +21645,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
-      </c>
-      <c r="I614" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J614" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21532,12 +21684,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
-      </c>
-      <c r="I615" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J615" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21571,12 +21723,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
-      </c>
-      <c r="I616" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J616" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21610,12 +21762,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
-      </c>
-      <c r="I617" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J617" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21649,12 +21801,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
-      </c>
-      <c r="I618" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J618" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21688,12 +21840,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
-      </c>
-      <c r="I619" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J619" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21727,12 +21879,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
-      </c>
-      <c r="I620" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J620" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21766,12 +21918,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
-      </c>
-      <c r="I621" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J621" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21805,12 +21957,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
-      </c>
-      <c r="I622" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J622" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21844,12 +21996,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
-      </c>
-      <c r="I623" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J623" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21883,12 +22035,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
-      </c>
-      <c r="I624" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J624" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21922,12 +22074,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
-      </c>
-      <c r="I625" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J625" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21961,12 +22113,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
-      </c>
-      <c r="I626" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J626" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22000,12 +22152,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
-      </c>
-      <c r="I627" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J627" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22039,12 +22191,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
-      </c>
-      <c r="I628" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J628" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22078,12 +22230,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
-      </c>
-      <c r="I629" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J629" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22117,12 +22269,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
-      </c>
-      <c r="I630" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J630" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22156,12 +22308,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
-      </c>
-      <c r="I631" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J631" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22195,12 +22347,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
-      </c>
-      <c r="I632" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J632" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22234,12 +22386,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
-      </c>
-      <c r="I633" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J633" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22273,12 +22425,12 @@
         <v>807342.1329387386</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
-      </c>
-      <c r="I634" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J634" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22312,12 +22464,12 @@
         <v>805824.3213387385</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
-      </c>
-      <c r="I635" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J635" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22351,12 +22503,12 @@
         <v>805824.3213387385</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
-      </c>
-      <c r="I636" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J636" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22390,12 +22542,12 @@
         <v>806703.9012387386</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
-      </c>
-      <c r="I637" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J637" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22429,12 +22581,12 @@
         <v>804056.3580387386</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
-      </c>
-      <c r="I638" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J638" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22468,12 +22620,12 @@
         <v>804707.3161387386</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
-      </c>
-      <c r="I639" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J639" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22507,12 +22659,12 @@
         <v>803079.9209387386</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
-      </c>
-      <c r="I640" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J640" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22546,12 +22698,12 @@
         <v>803079.9209387386</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
-      </c>
-      <c r="I641" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J641" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22585,12 +22737,12 @@
         <v>803730.8790387387</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
-      </c>
-      <c r="I642" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J642" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22624,12 +22776,12 @@
         <v>803730.8790387387</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
-      </c>
-      <c r="I643" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J643" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22663,12 +22815,12 @@
         <v>803405.4000387386</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
-      </c>
-      <c r="I644" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J644" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22702,12 +22854,12 @@
         <v>804591.3100387387</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
-      </c>
-      <c r="I645" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J645" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22741,12 +22893,12 @@
         <v>804591.3100387387</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
-      </c>
-      <c r="I646" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J646" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22780,12 +22932,12 @@
         <v>804591.3100387387</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
-      </c>
-      <c r="I647" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J647" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22819,12 +22971,12 @@
         <v>804591.3100387387</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
-      </c>
-      <c r="I648" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J648" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22858,12 +23010,12 @@
         <v>804591.3100387387</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
-      </c>
-      <c r="I649" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J649" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22897,12 +23049,12 @@
         <v>803289.3939387386</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
-      </c>
-      <c r="I650" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J650" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22936,12 +23088,12 @@
         <v>804470.1958387386</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
-      </c>
-      <c r="I651" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J651" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22975,12 +23127,12 @@
         <v>803286.6452387386</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
-      </c>
-      <c r="I652" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J652" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23014,12 +23166,12 @@
         <v>804499.3633387387</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
-      </c>
-      <c r="I653" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J653" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23053,12 +23205,12 @@
         <v>802624.0187387387</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J654" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23092,12 +23244,12 @@
         <v>802624.0187387387</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
-      </c>
-      <c r="I655" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J655" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23131,12 +23283,12 @@
         <v>802624.0187387387</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
-      </c>
-      <c r="I656" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J656" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23170,12 +23322,12 @@
         <v>804167.6495387388</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
-      </c>
-      <c r="I657" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J657" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23209,12 +23361,12 @@
         <v>802617.3476387388</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
-      </c>
-      <c r="I658" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J658" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23248,12 +23400,12 @@
         <v>803511.1806387388</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
-      </c>
-      <c r="I659" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J659" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23287,12 +23439,12 @@
         <v>802291.6070387388</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
-      </c>
-      <c r="I660" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J660" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23326,12 +23478,12 @@
         <v>802291.6070387388</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
-      </c>
-      <c r="I661" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J661" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23365,12 +23517,12 @@
         <v>802291.6070387388</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
-      </c>
-      <c r="I662" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J662" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23404,12 +23556,12 @@
         <v>802291.6070387388</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
-      </c>
-      <c r="I663" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J663" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23443,12 +23595,12 @@
         <v>802291.6070387388</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
-      </c>
-      <c r="I664" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J664" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23482,12 +23634,12 @@
         <v>804156.0487387388</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
-      </c>
-      <c r="I665" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J665" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23521,12 +23673,12 @@
         <v>803505.0907387388</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
-      </c>
-      <c r="I666" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J666" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23560,12 +23712,12 @@
         <v>804722.3164387387</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
-      </c>
-      <c r="I667" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J667" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23599,12 +23751,12 @@
         <v>804071.3584387387</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
-      </c>
-      <c r="I668" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J668" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23638,12 +23790,12 @@
         <v>804071.3584387387</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
-      </c>
-      <c r="I669" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J669" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23677,12 +23829,12 @@
         <v>805373.2746387387</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
-      </c>
-      <c r="I670" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J670" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23716,12 +23868,12 @@
         <v>805373.2746387387</v>
       </c>
       <c r="H671" t="n">
-        <v>1</v>
-      </c>
-      <c r="I671" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J671" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23755,12 +23907,12 @@
         <v>805373.2746387387</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
-      </c>
-      <c r="I672" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J672" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23794,12 +23946,12 @@
         <v>803831.7628387387</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
-      </c>
-      <c r="I673" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J673" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23833,12 +23985,12 @@
         <v>803831.7628387387</v>
       </c>
       <c r="H674" t="n">
-        <v>1</v>
-      </c>
-      <c r="I674" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J674" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23872,12 +24024,12 @@
         <v>804482.7209387388</v>
       </c>
       <c r="H675" t="n">
-        <v>1</v>
-      </c>
-      <c r="I675" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J675" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23911,12 +24063,12 @@
         <v>804482.7209387388</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
-      </c>
-      <c r="I676" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J676" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23950,12 +24102,12 @@
         <v>802733.5850387388</v>
       </c>
       <c r="H677" t="n">
-        <v>1</v>
-      </c>
-      <c r="I677" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J677" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23989,12 +24141,12 @@
         <v>802733.5850387388</v>
       </c>
       <c r="H678" t="n">
-        <v>1</v>
-      </c>
-      <c r="I678" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J678" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24028,12 +24180,12 @@
         <v>802733.5850387388</v>
       </c>
       <c r="H679" t="n">
-        <v>1</v>
-      </c>
-      <c r="I679" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J679" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24067,12 +24219,12 @@
         <v>803608.2477387388</v>
       </c>
       <c r="H680" t="n">
-        <v>1</v>
-      </c>
-      <c r="I680" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J680" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24109,7 +24261,9 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24146,7 +24300,9 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24183,7 +24339,9 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24220,7 +24378,9 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24257,7 +24417,9 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24294,7 +24456,9 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24331,7 +24495,9 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24368,7 +24534,9 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24402,12 +24570,12 @@
         <v>801725.6091387388</v>
       </c>
       <c r="H689" t="n">
-        <v>1</v>
-      </c>
-      <c r="I689" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J689" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24444,7 +24612,9 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24481,7 +24651,9 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24518,7 +24690,9 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24552,12 +24726,12 @@
         <v>799955.2628387389</v>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
-      </c>
-      <c r="I693" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J693" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24591,12 +24765,12 @@
         <v>799955.2628387389</v>
       </c>
       <c r="H694" t="n">
-        <v>1</v>
-      </c>
-      <c r="I694" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J694" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24630,12 +24804,12 @@
         <v>799955.2628387389</v>
       </c>
       <c r="H695" t="n">
-        <v>1</v>
-      </c>
-      <c r="I695" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J695" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24669,12 +24843,12 @@
         <v>801708.0836387388</v>
       </c>
       <c r="H696" t="n">
-        <v>1</v>
-      </c>
-      <c r="I696" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J696" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24708,12 +24882,12 @@
         <v>801708.0836387388</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
-      </c>
-      <c r="I697" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J697" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24750,7 +24924,9 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24784,12 +24960,12 @@
         <v>801382.6046387389</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
-      </c>
-      <c r="I699" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J699" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24823,12 +24999,12 @@
         <v>800192.9719387389</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
-      </c>
-      <c r="I700" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J700" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24865,7 +25041,9 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24902,7 +25080,9 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24939,7 +25119,9 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24973,12 +25155,12 @@
         <v>801933.2472387389</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
-      </c>
-      <c r="I704" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J704" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25015,7 +25197,9 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25049,12 +25233,12 @@
         <v>800393.0977387389</v>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
-      </c>
-      <c r="I706" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J706" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25088,12 +25272,12 @@
         <v>802133.6285387388</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
-      </c>
-      <c r="I707" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J707" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25127,12 +25311,12 @@
         <v>802133.6285387388</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
-      </c>
-      <c r="I708" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J708" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25166,12 +25350,12 @@
         <v>802133.6285387388</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
-      </c>
-      <c r="I709" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J709" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25205,12 +25389,12 @@
         <v>802133.6285387388</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
-      </c>
-      <c r="I710" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J710" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25247,7 +25431,9 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25281,12 +25467,12 @@
         <v>802111.1795387388</v>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
-      </c>
-      <c r="I712" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J712" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25320,12 +25506,12 @@
         <v>801215.9443387388</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
-      </c>
-      <c r="I713" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J713" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25359,12 +25545,12 @@
         <v>802843.3395387388</v>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
-      </c>
-      <c r="I714" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J714" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25398,12 +25584,12 @@
         <v>802517.8605387388</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
-      </c>
-      <c r="I715" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J715" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25437,12 +25623,12 @@
         <v>805144.7727387388</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
-      </c>
-      <c r="I716" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J716" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25476,12 +25662,12 @@
         <v>807400.5285387388</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
-      </c>
-      <c r="I717" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J717" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25518,7 +25704,9 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25552,12 +25740,12 @@
         <v>806199.7080387388</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
-      </c>
-      <c r="I719" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J719" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25591,12 +25779,12 @@
         <v>806199.7080387388</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
-      </c>
-      <c r="I720" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J720" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25633,7 +25821,9 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25667,12 +25857,12 @@
         <v>805303.6834387388</v>
       </c>
       <c r="H722" t="n">
-        <v>1</v>
-      </c>
-      <c r="I722" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J722" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25709,7 +25899,9 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25746,7 +25938,9 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25783,7 +25977,9 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25820,7 +26016,9 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25854,12 +26052,12 @@
         <v>804238.7449387389</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
-      </c>
-      <c r="I727" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J727" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25893,12 +26091,12 @@
         <v>805098.1298387388</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
-      </c>
-      <c r="I728" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="J728" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25932,12 +26130,12 @@
         <v>805098.1298387388</v>
       </c>
       <c r="H729" t="n">
-        <v>1</v>
-      </c>
-      <c r="I729" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J729" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25971,12 +26169,12 @@
         <v>805098.1298387388</v>
       </c>
       <c r="H730" t="n">
-        <v>1</v>
-      </c>
-      <c r="I730" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J730" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26010,12 +26208,12 @@
         <v>805098.1298387388</v>
       </c>
       <c r="H731" t="n">
-        <v>1</v>
-      </c>
-      <c r="I731" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J731" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26049,12 +26247,12 @@
         <v>805098.1298387388</v>
       </c>
       <c r="H732" t="n">
-        <v>1</v>
-      </c>
-      <c r="I732" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J732" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26088,12 +26286,12 @@
         <v>805098.1298387388</v>
       </c>
       <c r="H733" t="n">
-        <v>1</v>
-      </c>
-      <c r="I733" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J733" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26130,7 +26328,9 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26167,7 +26367,9 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26204,7 +26406,9 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26241,7 +26445,9 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26278,7 +26484,9 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26312,12 +26520,12 @@
         <v>804543.0340387389</v>
       </c>
       <c r="H739" t="n">
-        <v>1</v>
-      </c>
-      <c r="I739" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J739" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26351,12 +26559,12 @@
         <v>802676.3942387389</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
-      </c>
-      <c r="I740" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J740" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26390,12 +26598,12 @@
         <v>802676.3942387389</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
-      </c>
-      <c r="I741" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J741" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26429,12 +26637,12 @@
         <v>803978.3104387389</v>
       </c>
       <c r="H742" t="n">
-        <v>1</v>
-      </c>
-      <c r="I742" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J742" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26468,12 +26676,12 @@
         <v>802430.6123387389</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
-      </c>
-      <c r="I743" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J743" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26507,12 +26715,12 @@
         <v>802430.6123387389</v>
       </c>
       <c r="H744" t="n">
-        <v>1</v>
-      </c>
-      <c r="I744" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J744" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26546,12 +26754,12 @@
         <v>803644.6091387388</v>
       </c>
       <c r="H745" t="n">
-        <v>1</v>
-      </c>
-      <c r="I745" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J745" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26585,12 +26793,12 @@
         <v>803644.6091387388</v>
       </c>
       <c r="H746" t="n">
-        <v>1</v>
-      </c>
-      <c r="I746" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J746" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26624,12 +26832,12 @@
         <v>803644.6091387388</v>
       </c>
       <c r="H747" t="n">
-        <v>1</v>
-      </c>
-      <c r="I747" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J747" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26663,12 +26871,12 @@
         <v>802135.4385387389</v>
       </c>
       <c r="H748" t="n">
-        <v>1</v>
-      </c>
-      <c r="I748" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J748" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26702,12 +26910,12 @@
         <v>802135.4385387389</v>
       </c>
       <c r="H749" t="n">
-        <v>1</v>
-      </c>
-      <c r="I749" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J749" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26741,12 +26949,12 @@
         <v>803886.7879387388</v>
       </c>
       <c r="H750" t="n">
-        <v>1</v>
-      </c>
-      <c r="I750" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J750" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26783,7 +26991,9 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26820,7 +27030,9 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26857,7 +27069,9 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26894,7 +27108,9 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26928,12 +27144,12 @@
         <v>802986.8022387387</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
-      </c>
-      <c r="I755" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J755" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26970,7 +27186,9 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27004,12 +27222,12 @@
         <v>802959.1409387388</v>
       </c>
       <c r="H757" t="n">
-        <v>1</v>
-      </c>
-      <c r="I757" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J757" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27043,12 +27261,12 @@
         <v>802959.1409387388</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
-      </c>
-      <c r="I758" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J758" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27085,7 +27303,9 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27122,7 +27342,9 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27159,7 +27381,9 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27193,12 +27417,12 @@
         <v>802069.1228387388</v>
       </c>
       <c r="H762" t="n">
-        <v>1</v>
-      </c>
-      <c r="I762" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J762" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27232,12 +27456,12 @@
         <v>801743.6438387388</v>
       </c>
       <c r="H763" t="n">
-        <v>1</v>
-      </c>
-      <c r="I763" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J763" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27271,12 +27495,12 @@
         <v>802625.9272387387</v>
       </c>
       <c r="H764" t="n">
-        <v>1</v>
-      </c>
-      <c r="I764" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J764" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27310,12 +27534,12 @@
         <v>802625.9272387387</v>
       </c>
       <c r="H765" t="n">
-        <v>1</v>
-      </c>
-      <c r="I765" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J765" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27352,7 +27576,9 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27386,12 +27612,12 @@
         <v>801763.2073387387</v>
       </c>
       <c r="H767" t="n">
-        <v>1</v>
-      </c>
-      <c r="I767" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J767" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27425,12 +27651,12 @@
         <v>801763.2073387387</v>
       </c>
       <c r="H768" t="n">
-        <v>1</v>
-      </c>
-      <c r="I768" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J768" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27464,12 +27690,12 @@
         <v>801763.2073387387</v>
       </c>
       <c r="H769" t="n">
-        <v>1</v>
-      </c>
-      <c r="I769" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J769" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27503,12 +27729,12 @@
         <v>801763.2073387387</v>
       </c>
       <c r="H770" t="n">
-        <v>1</v>
-      </c>
-      <c r="I770" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J770" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27542,12 +27768,12 @@
         <v>801763.2073387387</v>
       </c>
       <c r="H771" t="n">
-        <v>1</v>
-      </c>
-      <c r="I771" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J771" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27581,12 +27807,12 @@
         <v>801763.2073387387</v>
       </c>
       <c r="H772" t="n">
-        <v>1</v>
-      </c>
-      <c r="I772" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J772" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27620,12 +27846,12 @@
         <v>803505.2068387388</v>
       </c>
       <c r="H773" t="n">
-        <v>1</v>
-      </c>
-      <c r="I773" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J773" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27659,12 +27885,12 @@
         <v>802622.1200387387</v>
       </c>
       <c r="H774" t="n">
-        <v>1</v>
-      </c>
-      <c r="I774" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J774" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27698,12 +27924,12 @@
         <v>808283.1464387387</v>
       </c>
       <c r="H775" t="n">
-        <v>1</v>
-      </c>
-      <c r="I775" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J775" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27737,12 +27963,12 @@
         <v>808283.1464387387</v>
       </c>
       <c r="H776" t="n">
-        <v>1</v>
-      </c>
-      <c r="I776" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J776" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27779,7 +28005,9 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27816,7 +28044,9 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27853,7 +28083,9 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27890,7 +28122,9 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27924,12 +28158,12 @@
         <v>808989.5820387388</v>
       </c>
       <c r="H781" t="n">
-        <v>1</v>
-      </c>
-      <c r="I781" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J781" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27963,12 +28197,12 @@
         <v>808989.5820387388</v>
       </c>
       <c r="H782" t="n">
-        <v>1</v>
-      </c>
-      <c r="I782" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J782" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28005,7 +28239,9 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28042,7 +28278,9 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28076,12 +28314,12 @@
         <v>808330.6546387387</v>
       </c>
       <c r="H785" t="n">
-        <v>1</v>
-      </c>
-      <c r="I785" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J785" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28115,12 +28353,12 @@
         <v>808330.6546387387</v>
       </c>
       <c r="H786" t="n">
-        <v>1</v>
-      </c>
-      <c r="I786" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J786" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28154,12 +28392,12 @@
         <v>808330.6546387387</v>
       </c>
       <c r="H787" t="n">
-        <v>1</v>
-      </c>
-      <c r="I787" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J787" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28196,7 +28434,9 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28230,12 +28470,12 @@
         <v>809632.5708387387</v>
       </c>
       <c r="H789" t="n">
-        <v>1</v>
-      </c>
-      <c r="I789" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J789" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28269,12 +28509,12 @@
         <v>808981.6127387387</v>
       </c>
       <c r="H790" t="n">
-        <v>1</v>
-      </c>
-      <c r="I790" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J790" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>43.31</v>
+      </c>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
